--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77600-Reviews-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Long-Beach-Airport-Hotel-And-Conference-Center.h11707.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528688652976&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=9efaecac-6236-4d00-a3cb-c3b612b506b3&amp;mctc=9&amp;exp_dp=209&amp;exp_ts=1528688653543&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,802 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r579325850-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>77600</t>
+  </si>
+  <si>
+    <t>579325850</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Shower Issue during my stay</t>
+  </si>
+  <si>
+    <t>Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the...Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the showers on/off switch due it become loose itself and the water temperature was hot when the switch go down to the hot water temperature.  I hope someone can send me compensate due of these issues.  I don't think want to stay there again.  I thought this hotel is with the IHG company and I thought the IHG Company suppose to see all of IHG hotels need to take care of guests that is called IHG Cares but this hotel is not sounds and don't care about IHG Cares. :(.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the...Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the showers on/off switch due it become loose itself and the water temperature was hot when the switch go down to the hot water temperature.  I hope someone can send me compensate due of these issues.  I don't think want to stay there again.  I thought this hotel is with the IHG company and I thought the IHG Company suppose to see all of IHG hotels need to take care of guests that is called IHG Cares but this hotel is not sounds and don't care about IHG Cares. :(.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r564086665-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>564086665</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>A retirement party.</t>
+  </si>
+  <si>
+    <t>The service was slow and seemed to be uninterested in the customer. Not were you want to go. I will never go to another event at this place. It is freeway close but the do not seem to know that the customer pays the cost for service and was talking to be served.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>The service was slow and seemed to be uninterested in the customer. Not were you want to go. I will never go to another event at this place. It is freeway close but the do not seem to know that the customer pays the cost for service and was talking to be served.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r541851314-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>541851314</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>If you need a cheap and Terrible place to stay... you have found it.  Rude staff. Horrible smell.  Only good thing is it was just for one night.  Stay nowhere else.  I promise you will be better off.  There is nothing good about this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>If you need a cheap and Terrible place to stay... you have found it.  Rude staff. Horrible smell.  Only good thing is it was just for one night.  Stay nowhere else.  I promise you will be better off.  There is nothing good about this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r534908773-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>534908773</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Good friendly hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for business, nice clean room, friendly and helpful staff. Vue restaurant on the penthouse has a great happy hour with 1/2 price appetizers and of course a great vue! A variety of restaurants eithin ealking distance. Happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for business, nice clean room, friendly and helpful staff. Vue restaurant on the penthouse has a great happy hour with 1/2 price appetizers and of course a great vue! A variety of restaurants eithin ealking distance. Happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r530565099-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>530565099</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>This was a good value versus the pricier properties near the convention center. Although my room faced the airport there wasn't any noise that would disrupt a good nights sleep. The property is nicely remodeled, has a small cafe that sells Peets coffee (Yes!) as well as a self-serve snack area for early/late hours. Everyone was courteous and the room was modern and clean. I visited the Vue bar one evening for dinner and was warmly greeted and attended to; very handy for not having to go anywhere else at end of a long day. My only gripe was the parking charge. I don't see how that ensures that guests have space to park because it would not change the number of guest vehicles. Gas station next door; very handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Moyoon K, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>This was a good value versus the pricier properties near the convention center. Although my room faced the airport there wasn't any noise that would disrupt a good nights sleep. The property is nicely remodeled, has a small cafe that sells Peets coffee (Yes!) as well as a self-serve snack area for early/late hours. Everyone was courteous and the room was modern and clean. I visited the Vue bar one evening for dinner and was warmly greeted and attended to; very handy for not having to go anywhere else at end of a long day. My only gripe was the parking charge. I don't see how that ensures that guests have space to park because it would not change the number of guest vehicles. Gas station next door; very handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r528831886-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>528831886</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Steep prices and over-worked front desk staff</t>
+  </si>
+  <si>
+    <t>Clean rooms and clean lobby but the front desk staff seemed overworked.  Even though I was the only one trying to check in at the time.  He kept blaming it on computer issues.  Pros and cons of every hotel stay and this one is no exception.Disappointed by the fact that no one could tell me why the coffee bar in the lobby was closed by 11:50 AM. I am appreciative of the laundry facilities..Just they were just a single washer and dryer at the end of a hallway on the 1st floor completely unsecured.Room was small and and I not sure that I got the executive room that I paid for.PRO:  Close to Long Beach Airport which is why I picked this property for a very early morning 5:40 AM depurate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms and clean lobby but the front desk staff seemed overworked.  Even though I was the only one trying to check in at the time.  He kept blaming it on computer issues.  Pros and cons of every hotel stay and this one is no exception.Disappointed by the fact that no one could tell me why the coffee bar in the lobby was closed by 11:50 AM. I am appreciative of the laundry facilities..Just they were just a single washer and dryer at the end of a hallway on the 1st floor completely unsecured.Room was small and and I not sure that I got the executive room that I paid for.PRO:  Close to Long Beach Airport which is why I picked this property for a very early morning 5:40 AM depurate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r502480066-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>502480066</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Rate Does Not Match Hotel</t>
+  </si>
+  <si>
+    <t>I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.
+The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise'...I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise' if you're facing the freeway. I stayed here for business for two nights. Would I stay here again? No likely not- Too many other options a shorter drive away. Simply, the cost for the room and parking did not match what I would be willing to spend outside of work. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.
+The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise'...I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise' if you're facing the freeway. I stayed here for business for two nights. Would I stay here again? No likely not- Too many other options a shorter drive away. Simply, the cost for the room and parking did not match what I would be willing to spend outside of work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r501114667-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>501114667</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Hotel guest check in is met with stoic or much less than enthusiastic greeting</t>
+  </si>
+  <si>
+    <t>Cost is not commensurate with hotel, restaurant, or service. Hotel is noisy and especially if you stay on the 12 floor there is lots of stomping noises and rolling cart noises well into the night. The restaurant and bar are the next level. Also don't let them con you into a  handicap room if you don't need it. Parking for this palace is $9.00 a night now just because they need the money. A year ago it was free, 2 years ago free, 20 years ago free, now 9.00.. Food was mediocre, service was ok, For a romantic dining experience "DONT GO HERE". I will return, NEVER to this hotel. Whomever took it over has ruined it as far as I am concerned..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Cost is not commensurate with hotel, restaurant, or service. Hotel is noisy and especially if you stay on the 12 floor there is lots of stomping noises and rolling cart noises well into the night. The restaurant and bar are the next level. Also don't let them con you into a  handicap room if you don't need it. Parking for this palace is $9.00 a night now just because they need the money. A year ago it was free, 2 years ago free, 20 years ago free, now 9.00.. Food was mediocre, service was ok, For a romantic dining experience "DONT GO HERE". I will return, NEVER to this hotel. Whomever took it over has ruined it as far as I am concerned..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r500360409-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>500360409</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice clean stay</t>
+  </si>
+  <si>
+    <t>Clean property and the restaurant was great. The event I was attending was catered by the hotel and the food was well prepared and presented. Each day we were served breakfast and lunch. The facility has a shuttle but only for the Long Beach Airport not LAXMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Clean property and the restaurant was great. The event I was attending was catered by the hotel and the food was well prepared and presented. Each day we were served breakfast and lunch. The facility has a shuttle but only for the Long Beach Airport not LAXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r492051797-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>492051797</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>We booked one night after our cruise so we could site-see in the LA area.  We arrived too early to check in, but staff was glad to hold all of our bags while we explored the city.  One particular staff member helped us with planning things to do for the day!  When we did check in later that night, the staff was very friendly, room was clean, comfortable and quiet.  Loved the sunset views from the restaurant and bar!  We would definitely stay here again if we are ever in Long Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>We booked one night after our cruise so we could site-see in the LA area.  We arrived too early to check in, but staff was glad to hold all of our bags while we explored the city.  One particular staff member helped us with planning things to do for the day!  When we did check in later that night, the staff was very friendly, room was clean, comfortable and quiet.  Loved the sunset views from the restaurant and bar!  We would definitely stay here again if we are ever in Long Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r486215605-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>486215605</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Nice circular hotel</t>
+  </si>
+  <si>
+    <t>We stayed here as it was close to my daughter's house. Really nice hotel conveniently located. 25 minutes from LAX, 5 minutes from long beach airport. Really well maintained. Rooms were nice and clean. Pool, restaurant, bar and coffee shop all on the grounds. Shuttle runs to long beach airport frequently. We looked it allot as it was friendly and clean. We will stay there again. Parking does cost if you are not a high level ihg reward member. Free if you are...EnjoyMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here as it was close to my daughter's house. Really nice hotel conveniently located. 25 minutes from LAX, 5 minutes from long beach airport. Really well maintained. Rooms were nice and clean. Pool, restaurant, bar and coffee shop all on the grounds. Shuttle runs to long beach airport frequently. We looked it allot as it was friendly and clean. We will stay there again. Parking does cost if you are not a high level ihg reward member. Free if you are...EnjoyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r485988412-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>485988412</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Pretty hotel</t>
+  </si>
+  <si>
+    <t>Booked this place on Hotwire. Not a bad looking hotel. Great looking hotel, decent sized modern looking rooms. Pool was ok. Manny had great customer service when we checked in very courteous and fast! Would probably stay here again. Heads up, u do need to purchase a parking pass and the wifi was pretty slow. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Booked this place on Hotwire. Not a bad looking hotel. Great looking hotel, decent sized modern looking rooms. Pool was ok. Manny had great customer service when we checked in very courteous and fast! Would probably stay here again. Heads up, u do need to purchase a parking pass and the wifi was pretty slow. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r473381446-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>473381446</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Good Room, But 12th floor is noisy</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night only, but it is anoying to have the restaurant above your head with carts rolling, people walking, things falling and you hearing all at your bed, trying to sleep. The room itself is clean, Toletry is fair, Shower doesn' t have pressure in the water, but temperature is stable. Windows were tottaly dirt outside. Tried totake pictures but the dirt distorces didn't allow me. Parking lot is always full, no places to park nearby to the Lobby. For a one night stand is fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night only, but it is anoying to have the restaurant above your head with carts rolling, people walking, things falling and you hearing all at your bed, trying to sleep. The room itself is clean, Toletry is fair, Shower doesn' t have pressure in the water, but temperature is stable. Windows were tottaly dirt outside. Tried totake pictures but the dirt distorces didn't allow me. Parking lot is always full, no places to park nearby to the Lobby. For a one night stand is fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r467105349-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>467105349</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Awesome Sauce!!!!</t>
+  </si>
+  <si>
+    <t>Needed a 1 nighter, Holiday Inn to the rescue; The front desk reception was beyond professional, total explanations of all questions - Very kid friendly to the point of "sefies" winning! The room very clean, eloquent, and the bed very comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Needed a 1 nighter, Holiday Inn to the rescue; The front desk reception was beyond professional, total explanations of all questions - Very kid friendly to the point of "sefies" winning! The room very clean, eloquent, and the bed very comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r466650525-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>466650525</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Executive Room Worth It</t>
+  </si>
+  <si>
+    <t>The Trip Advisor reviews hinted that it would be worth it to book the Executive Rooms instead of Standard ones...and so I did. And, I am glad. Excellent, clean, comfortable  King bed and all the amenities. Super comfy for 2 nights. Breakfast for two at the restaurant at top of the hotel included. Had fresh hot breakfast offerings (up to $12 per ticket) that were yummy. Excellent service in restaurant...nice view. Front Desk efficient and friendly. Will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>The Trip Advisor reviews hinted that it would be worth it to book the Executive Rooms instead of Standard ones...and so I did. And, I am glad. Excellent, clean, comfortable  King bed and all the amenities. Super comfy for 2 nights. Breakfast for two at the restaurant at top of the hotel included. Had fresh hot breakfast offerings (up to $12 per ticket) that were yummy. Excellent service in restaurant...nice view. Front Desk efficient and friendly. Will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r452332780-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>452332780</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Rooms are nice, good wifi, and good food on the top Restaurant ..Don't expect the check in girls to follow up on thing like cabs, rides, ect.Setup a limo to LAX, checked with them 3 times before I went to bed and "No problem"they said       { BAMM }came down in the morning and NO ONE NEW anything about it..........MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Rooms are nice, good wifi, and good food on the top Restaurant ..Don't expect the check in girls to follow up on thing like cabs, rides, ect.Setup a limo to LAX, checked with them 3 times before I went to bed and "No problem"they said       { BAMM }came down in the morning and NO ONE NEW anything about it..........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r449259631-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>449259631</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>HOLIDAY INN AIRPORT LONG BEACH</t>
+  </si>
+  <si>
+    <t>Stayed over on December 23, 2016... I know they had undergone a significant upgrade and on this stay it was very nicely done/completed. The rooms were nice, the views were great, the coffee shop in the lobby was great. I did not get a chance to try the restaurant at the top of the hotel. Overall I gave it a 9 for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Stayed over on December 23, 2016... I know they had undergone a significant upgrade and on this stay it was very nicely done/completed. The rooms were nice, the views were great, the coffee shop in the lobby was great. I did not get a chance to try the restaurant at the top of the hotel. Overall I gave it a 9 for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r447229431-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>447229431</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Pretty Good Stay</t>
+  </si>
+  <si>
+    <t>I enjoyed a nice stay. The bed was comfortable, the bathroom was clean and well lit, and the internet/TV were great. The restaurant was under construction but the bar area, that served as a restaurant, was adequate​. Parking is plentiful (free) and the hotel is conveniently located near the airport and restaurants. I would be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I enjoyed a nice stay. The bed was comfortable, the bathroom was clean and well lit, and the internet/TV were great. The restaurant was under construction but the bar area, that served as a restaurant, was adequate​. Parking is plentiful (free) and the hotel is conveniently located near the airport and restaurants. I would be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r434011248-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>434011248</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Under renovation</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing a much-needed renovation. Unfortunately, I got one of the unrenovated rooms in the older, "motel" part of the complex. Good point: they took two rooms and made them into one - so it was a HUGE suite. Bad point: dated, noisy (with airport and vehicular traffic). Lobby had been renovated and the restaurant/bar has been moved to the first floor (at least for now). Nice. Ate there a couple of times. Good food. Good selection of beers. Sleeping room was decent. Like I said, it was huge. One room had desk, couch and lounge chair. The other room was the sleeping room. Each room had a door to the outside. Bed was ok. Pillows were king-sized which make them difficult to put where you want/need. Cleanliness was good. Staff at hotel was wonderful. Would I stay again?  Yes. Good value for the area. Safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing a much-needed renovation. Unfortunately, I got one of the unrenovated rooms in the older, "motel" part of the complex. Good point: they took two rooms and made them into one - so it was a HUGE suite. Bad point: dated, noisy (with airport and vehicular traffic). Lobby had been renovated and the restaurant/bar has been moved to the first floor (at least for now). Nice. Ate there a couple of times. Good food. Good selection of beers. Sleeping room was decent. Like I said, it was huge. One room had desk, couch and lounge chair. The other room was the sleeping room. Each room had a door to the outside. Bed was ok. Pillows were king-sized which make them difficult to put where you want/need. Cleanliness was good. Staff at hotel was wonderful. Would I stay again?  Yes. Good value for the area. Safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r427059263-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>427059263</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Overcharged</t>
+  </si>
+  <si>
+    <t>I had a reservation for 2 nights.  I was unable to make it to Long Beach for the first night due to a cancelled flight.  I was told at the front desk that I would not be charged for not showing up the first night due to circumstances outside of my control.   I was subsequently charged $156.34 by the hotel.  I called the hotel and was told to contact the accounting department.  After 3 tries I finally reached the accounting department.   The accounting department said they would investigate and that the there was a note in my account that I should not be charged.   The accounting department never called back.   After 10 days, I called back and they acted like they had no record or me calling the first time.  This place is a mess and needs to get their act together!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>I had a reservation for 2 nights.  I was unable to make it to Long Beach for the first night due to a cancelled flight.  I was told at the front desk that I would not be charged for not showing up the first night due to circumstances outside of my control.   I was subsequently charged $156.34 by the hotel.  I called the hotel and was told to contact the accounting department.  After 3 tries I finally reached the accounting department.   The accounting department said they would investigate and that the there was a note in my account that I should not be charged.   The accounting department never called back.   After 10 days, I called back and they acted like they had no record or me calling the first time.  This place is a mess and needs to get their act together!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r425372532-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>425372532</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Lured In to false room</t>
+  </si>
+  <si>
+    <t>Booked room 2 weeks ahead of time for week long business trip......was very specific to booking agent (whom which told me he work at said hotel)....that I wanted a room with a balcony, that being my #1 priority for the room. He assured me that he had 1 room left WITH outside balcony access....I immediately told him to book me.There was no balcony, booking agent did not work there and management seemed to care less.MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Booked room 2 weeks ahead of time for week long business trip......was very specific to booking agent (whom which told me he work at said hotel)....that I wanted a room with a balcony, that being my #1 priority for the room. He assured me that he had 1 room left WITH outside balcony access....I immediately told him to book me.There was no balcony, booking agent did not work there and management seemed to care less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r408511218-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>408511218</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Would have been a good stay if it were not for the cockroach and bed bug</t>
+  </si>
+  <si>
+    <t>My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.  
+Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think...My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.   Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think at what will happen to my clothes after being put in the hot dryer as they are normally lined dry.  My luggage is also outside wrapped in a plastic bag. FYI - washing clothes in very hot water and putting them in very hot dryer is only way to get rid of beg bugs.The supervisor did say these rooms will be taken out of commission, but just be aware and take the necessary precautions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, General Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.  
+Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think...My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.   Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think at what will happen to my clothes after being put in the hot dryer as they are normally lined dry.  My luggage is also outside wrapped in a plastic bag. FYI - washing clothes in very hot water and putting them in very hot dryer is only way to get rid of beg bugs.The supervisor did say these rooms will be taken out of commission, but just be aware and take the necessary precautions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r400104495-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>400104495</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Good but...</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff - 5 stars thereRooms clean albeit small3 Stars for slamming doors, not insulated door which let it so much light that you always have twilight at night. The worst is the door to the adjacent room which is thin that one can hear the entire conversation next door. We had kids next door and they were goofing off (not party so we didn't call front desk) and we kept waking up...They also have paid parking that is not gated (we didn't use it)MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff - 5 stars thereRooms clean albeit small3 Stars for slamming doors, not insulated door which let it so much light that you always have twilight at night. The worst is the door to the adjacent room which is thin that one can hear the entire conversation next door. We had kids next door and they were goofing off (not party so we didn't call front desk) and we kept waking up...They also have paid parking that is not gated (we didn't use it)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r398997669-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>398997669</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Ok, but aging</t>
+  </si>
+  <si>
+    <t>Not close to the beach.  The rooms are old, but they are trying to make them feel younger.  Not a great area of town.  All in all, I would not stay here again.  And, i would pay more to stay farther way for better comfort. MoreShow less</t>
+  </si>
+  <si>
+    <t>Not close to the beach.  The rooms are old, but they are trying to make them feel younger.  Not a great area of town.  All in all, I would not stay here again.  And, i would pay more to stay farther way for better comfort. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r382818065-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>382818065</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Go somewhere else!</t>
+  </si>
+  <si>
+    <t>The physical condition of the hotel was fine, location was okay, but the front desk staff was rude and they were less than honest.  I will not return and I could not give a recommendation for this place when there are so many other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>The physical condition of the hotel was fine, location was okay, but the front desk staff was rude and they were less than honest.  I will not return and I could not give a recommendation for this place when there are so many other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r379755516-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>379755516</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>2 qualtity type rooms</t>
+  </si>
+  <si>
+    <t>I book this hotel via Hotwire, howerver  i believe this should not be a reson to give lower quality rooms . The brand is Holiday  Inn and they should keep this level of quality , regardles of how you book it. The issue is thay have two buildings, the one tall one, that is shown in their web, and then a back one, which is a old style motel building.  Not only the rooms faces the street ( which makes them noizy)  but also they are not in the best shape. Old carpet, old style furniture,  So basicaily  not even a Holiday Inn Express categoryI can not neglect that the main building has a great apperance, and probably the rooms are quite nicer, but that is not what i got!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>I book this hotel via Hotwire, howerver  i believe this should not be a reson to give lower quality rooms . The brand is Holiday  Inn and they should keep this level of quality , regardles of how you book it. The issue is thay have two buildings, the one tall one, that is shown in their web, and then a back one, which is a old style motel building.  Not only the rooms faces the street ( which makes them noizy)  but also they are not in the best shape. Old carpet, old style furniture,  So basicaily  not even a Holiday Inn Express categoryI can not neglect that the main building has a great apperance, and probably the rooms are quite nicer, but that is not what i got!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r378313670-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>378313670</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>NO COMPLIMENTARY BREAKFAST!!!!!?????</t>
+  </si>
+  <si>
+    <t>This is an outrage. This hotel looks nice, pretends to be your friend, but will charge For breakfast the next morning. HOW RUDE. I've never been to a holiday inn where breakfasts wasn't complimentary. This place should be destroyed immediately. Lol I'm being abit dramatic but seriously for the price of these rooms they should offer it free. Hotel staff is friendly and courteous and hotel is clean and by 405 freeway easy to find. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an outrage. This hotel looks nice, pretends to be your friend, but will charge For breakfast the next morning. HOW RUDE. I've never been to a holiday inn where breakfasts wasn't complimentary. This place should be destroyed immediately. Lol I'm being abit dramatic but seriously for the price of these rooms they should offer it free. Hotel staff is friendly and courteous and hotel is clean and by 405 freeway easy to find. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r367053980-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>367053980</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but watch out for fees</t>
+  </si>
+  <si>
+    <t>Really nice room and beds, service was okay... My main issue is we were charged a $20 occupancy fee and $9 for parking so tack on another $30 to their nightly room rate and you've got an overpriced hotel. If it wasn't for that, I'd highly recommend this hotel. I prefer hotels that are up front with how much it really costs per night, not baits you in with a low accommodation cost and then charge all kinds of fees... Not cool. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Really nice room and beds, service was okay... My main issue is we were charged a $20 occupancy fee and $9 for parking so tack on another $30 to their nightly room rate and you've got an overpriced hotel. If it wasn't for that, I'd highly recommend this hotel. I prefer hotels that are up front with how much it really costs per night, not baits you in with a low accommodation cost and then charge all kinds of fees... Not cool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r365870135-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>365870135</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Descent place, terrible experience with management</t>
+  </si>
+  <si>
+    <t>Visited the property in March 2016. My experience is based on my own observations and my own personal interaction with hotel staff. The property is trying to improve. If one reads the 2012 reviews a person would be crazy to stay here. But, since then it appears the hotel has slowly improved. All the review comments about noise are true. It is next to one of the busiest freeways in the world and there is an airport nearby as well. However, it is well placed for anyone needing a place to stay in southern LA county. The remodel seems to have helped reviews move into the three to five star range. It needed the remodel in many ways.My terrible experience occurred while personally  interacting with hotel management. I found management to be unreasonable and greed motivated. It would have been simple to resolve my concerns and issues in an equitable manner, but instead management chose to try to take advantage of my situation. Rather than you thinking this review is just an editorial, my review is based on my personal experience with staff, management and representatives of this hotel and I base my review of my experience with this hotel on my comparable experiences with many other hotel brands where my experiences were more positive under similar circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Visited the property in March 2016. My experience is based on my own observations and my own personal interaction with hotel staff. The property is trying to improve. If one reads the 2012 reviews a person would be crazy to stay here. But, since then it appears the hotel has slowly improved. All the review comments about noise are true. It is next to one of the busiest freeways in the world and there is an airport nearby as well. However, it is well placed for anyone needing a place to stay in southern LA county. The remodel seems to have helped reviews move into the three to five star range. It needed the remodel in many ways.My terrible experience occurred while personally  interacting with hotel management. I found management to be unreasonable and greed motivated. It would have been simple to resolve my concerns and issues in an equitable manner, but instead management chose to try to take advantage of my situation. Rather than you thinking this review is just an editorial, my review is based on my personal experience with staff, management and representatives of this hotel and I base my review of my experience with this hotel on my comparable experiences with many other hotel brands where my experiences were more positive under similar circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r363971974-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>363971974</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Decent Room, Decent Service, Staff Varies in Friendliness</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn in early March for several days.  We used points from a time share converted to stay at the hotel.  We stayed here for nostalgic purposes, as we had stayed here many times as children visiting family in the area.  
+First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  
+We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.
+As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers,...I stayed at the Holiday Inn in early March for several days.  We used points from a time share converted to stay at the hotel.  We stayed here for nostalgic purposes, as we had stayed here many times as children visiting family in the area.  First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers, stating she couldn't do anything about the price of our room since we "paid so little" (this is the second time we heard this...I think she has something against discount customers, AND is mistaken when she categorizes them...do NOT book the way we did...).  We told her we were there for a week and really just wanted hot water.  She became more friendly then and said she would have someone work on it while we were gone.When we returned, another lady moved us to a renovated room on the fifth floor.  She went up to the room personally to ensure the hot water in that room was working prior to moving rooms.  She was very helpful.  The renovated room was not really much different than the room we had on the 7th floor.  The bathroom remodel was AMAZING, but...the sink was now in the main bathroom, which wasn't as convenient for us, but we made it work.  There was also less room due to a large rolling table as part of a desk, but it was comfortable and clean.  Overall, our stay was pleasant.  I left my makeup brushes back in the vanity at the hotel and they never could find them, but they have a lot of people coming and going, so I cut my losses and bought new.We parked underneath a light every night and felt perfectly comfortable walking to the main building.  The lobby looks as if it will be nice once finished.  One elevator was renovated and one wasn't, and you could tell a HUGE difference there.  They turned the hot water off a few times during our stay, but other than the first time (when ours never returned), they always posted notices ahead of time.Our biggest issue was being treated as a second rate guest for trading in points.  Lesson learned on using points outside of the timeshare.  They cooperate with another well known chain, and in the future I will know Holiday Inn doesn't appreciate customers who don't book rack rate and will look into other options.The nostalgia we went looking for was lacking.  The tiny balconies (that you couldn't really fit on) have been replaced with windows (safety, I am sure).  The breakfast on the top floor was ridiculously priced, so we went elsewhere (I suggest Hof's Hut).  It was a good location for our visit though, and overall a pleasant experience.They are renovating, so make sure you go in knowing there may be glitches.  The smaller two story building outside looked sketchy.  My sister overheard the same woman tell someone on the phone that they reserve the tower rooms for people who have stayed with them before, so maybe keep that in mind.  Eventually, they will bulldoze that building (the two story building with outside entrances) and turn it into suites, from what we were told, but I am glad we were in the tower.We did not visit the outdoor pool, the workout facility, or the penthouse restaurant.  They were working on the quick eat location in the lobby, so it was not available.  We did use the "business center" - which was a printer and computer behind a counter, but they were very accommodating in letting us print our boarding passes. The reviews on this lately are very mixed.  Book at your own risk until renovations are complete.MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn in early March for several days.  We used points from a time share converted to stay at the hotel.  We stayed here for nostalgic purposes, as we had stayed here many times as children visiting family in the area.  
+First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  
+We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.
+As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers,...I stayed at the Holiday Inn in early March for several days.  We used points from a time share converted to stay at the hotel.  We stayed here for nostalgic purposes, as we had stayed here many times as children visiting family in the area.  First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers, stating she couldn't do anything about the price of our room since we "paid so little" (this is the second time we heard this...I think she has something against discount customers, AND is mistaken when she categorizes them...do NOT book the way we did...).  We told her we were there for a week and really just wanted hot water.  She became more friendly then and said she would have someone work on it while we were gone.When we returned, another lady moved us to a renovated room on the fifth floor.  She went up to the room personally to ensure the hot water in that room was working prior to moving rooms.  She was very helpful.  The renovated room was not really much different than the room we had on the 7th floor.  The bathroom remodel was AMAZING, but...the sink was now in the main bathroom, which wasn't as convenient for us, but we made it work.  There was also less room due to a large rolling table as part of a desk, but it was comfortable and clean.  Overall, our stay was pleasant.  I left my makeup brushes back in the vanity at the hotel and they never could find them, but they have a lot of people coming and going, so I cut my losses and bought new.We parked underneath a light every night and felt perfectly comfortable walking to the main building.  The lobby looks as if it will be nice once finished.  One elevator was renovated and one wasn't, and you could tell a HUGE difference there.  They turned the hot water off a few times during our stay, but other than the first time (when ours never returned), they always posted notices ahead of time.Our biggest issue was being treated as a second rate guest for trading in points.  Lesson learned on using points outside of the timeshare.  They cooperate with another well known chain, and in the future I will know Holiday Inn doesn't appreciate customers who don't book rack rate and will look into other options.The nostalgia we went looking for was lacking.  The tiny balconies (that you couldn't really fit on) have been replaced with windows (safety, I am sure).  The breakfast on the top floor was ridiculously priced, so we went elsewhere (I suggest Hof's Hut).  It was a good location for our visit though, and overall a pleasant experience.They are renovating, so make sure you go in knowing there may be glitches.  The smaller two story building outside looked sketchy.  My sister overheard the same woman tell someone on the phone that they reserve the tower rooms for people who have stayed with them before, so maybe keep that in mind.  Eventually, they will bulldoze that building (the two story building with outside entrances) and turn it into suites, from what we were told, but I am glad we were in the tower.We did not visit the outdoor pool, the workout facility, or the penthouse restaurant.  They were working on the quick eat location in the lobby, so it was not available.  We did use the "business center" - which was a printer and computer behind a counter, but they were very accommodating in letting us print our boarding passes. The reviews on this lately are very mixed.  Book at your own risk until renovations are complete.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1444,1908 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>189</v>
+      </c>
+      <c r="X17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>198</v>
+      </c>
+      <c r="X18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>213</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>223</v>
+      </c>
+      <c r="X21" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" t="s">
+        <v>229</v>
+      </c>
+      <c r="L22" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>231</v>
+      </c>
+      <c r="X22" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>239</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>240</v>
+      </c>
+      <c r="X23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>248</v>
+      </c>
+      <c r="X24" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
+        <v>255</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>295</v>
+      </c>
+      <c r="X30" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>299</v>
+      </c>
+      <c r="J31" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Robert Y</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the...Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the showers on/off switch due it become loose itself and the water temperature was hot when the switch go down to the hot water temperature.  I hope someone can send me compensate due of these issues.  I don't think want to stay there again.  I thought this hotel is with the IHG company and I thought the IHG Company suppose to see all of IHG hotels need to take care of guests that is called IHG Cares but this hotel is not sounds and don't care about IHG Cares. :(.More</t>
   </si>
   <si>
+    <t>Bill C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r564086665-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The service was slow and seemed to be uninterested in the customer. Not were you want to go. I will never go to another event at this place. It is freeway close but the do not seem to know that the customer pays the cost for service and was talking to be served.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r541851314-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>If you need a cheap and Terrible place to stay... you have found it.  Rude staff. Horrible smell.  Only good thing is it was just for one night.  Stay nowhere else.  I promise you will be better off.  There is nothing good about this place.More</t>
   </si>
   <si>
+    <t>Mike F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r534908773-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Stayed here for business, nice clean room, friendly and helpful staff. Vue restaurant on the penthouse has a great happy hour with 1/2 price appetizers and of course a great vue! A variety of restaurants eithin ealking distance. Happy with my stay.More</t>
   </si>
   <si>
+    <t>Jadfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r530565099-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>This was a good value versus the pricier properties near the convention center. Although my room faced the airport there wasn't any noise that would disrupt a good nights sleep. The property is nicely remodeled, has a small cafe that sells Peets coffee (Yes!) as well as a self-serve snack area for early/late hours. Everyone was courteous and the room was modern and clean. I visited the Vue bar one evening for dinner and was warmly greeted and attended to; very handy for not having to go anywhere else at end of a long day. My only gripe was the parking charge. I don't see how that ensures that guests have space to park because it would not change the number of guest vehicles. Gas station next door; very handy.More</t>
   </si>
   <si>
+    <t>ANTH5656</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r528831886-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -325,6 +343,9 @@
   </si>
   <si>
     <t>Clean rooms and clean lobby but the front desk staff seemed overworked.  Even though I was the only one trying to check in at the time.  He kept blaming it on computer issues.  Pros and cons of every hotel stay and this one is no exception.Disappointed by the fact that no one could tell me why the coffee bar in the lobby was closed by 11:50 AM. I am appreciative of the laundry facilities..Just they were just a single washer and dryer at the end of a hallway on the 1st floor completely unsecured.Room was small and and I not sure that I got the executive room that I paid for.PRO:  Close to Long Beach Airport which is why I picked this property for a very early morning 5:40 AM depurate.More</t>
+  </si>
+  <si>
+    <t>Robyn O</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r502480066-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -356,6 +377,9 @@
 The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise'...I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise' if you're facing the freeway. I stayed here for business for two nights. Would I stay here again? No likely not- Too many other options a shorter drive away. Simply, the cost for the room and parking did not match what I would be willing to spend outside of work. More</t>
   </si>
   <si>
+    <t>ROBERT G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r501114667-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -383,6 +407,9 @@
     <t>Cost is not commensurate with hotel, restaurant, or service. Hotel is noisy and especially if you stay on the 12 floor there is lots of stomping noises and rolling cart noises well into the night. The restaurant and bar are the next level. Also don't let them con you into a  handicap room if you don't need it. Parking for this palace is $9.00 a night now just because they need the money. A year ago it was free, 2 years ago free, 20 years ago free, now 9.00.. Food was mediocre, service was ok, For a romantic dining experience "DONT GO HERE". I will return, NEVER to this hotel. Whomever took it over has ruined it as far as I am concerned..More</t>
   </si>
   <si>
+    <t>Ty P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r500360409-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t>Clean property and the restaurant was great. The event I was attending was catered by the hotel and the food was well prepared and presented. Each day we were served breakfast and lunch. The facility has a shuttle but only for the Long Beach Airport not LAXMore</t>
   </si>
   <si>
+    <t>happygrl2907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r492051797-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>We booked one night after our cruise so we could site-see in the LA area.  We arrived too early to check in, but staff was glad to hold all of our bags while we explored the city.  One particular staff member helped us with planning things to do for the day!  When we did check in later that night, the staff was very friendly, room was clean, comfortable and quiet.  Loved the sunset views from the restaurant and bar!  We would definitely stay here again if we are ever in Long Beach.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r486215605-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -461,6 +494,9 @@
     <t>We stayed here as it was close to my daughter's house. Really nice hotel conveniently located. 25 minutes from LAX, 5 minutes from long beach airport. Really well maintained. Rooms were nice and clean. Pool, restaurant, bar and coffee shop all on the grounds. Shuttle runs to long beach airport frequently. We looked it allot as it was friendly and clean. We will stay there again. Parking does cost if you are not a high level ihg reward member. Free if you are...EnjoyMore</t>
   </si>
   <si>
+    <t>WhatsTheTee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r485988412-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -488,6 +524,9 @@
     <t>Booked this place on Hotwire. Not a bad looking hotel. Great looking hotel, decent sized modern looking rooms. Pool was ok. Manny had great customer service when we checked in very courteous and fast! Would probably stay here again. Heads up, u do need to purchase a parking pass and the wifi was pretty slow. More</t>
   </si>
   <si>
+    <t>FRANKNORIO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r473381446-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -515,6 +554,9 @@
     <t>Stayed for 1 night only, but it is anoying to have the restaurant above your head with carts rolling, people walking, things falling and you hearing all at your bed, trying to sleep. The room itself is clean, Toletry is fair, Shower doesn' t have pressure in the water, but temperature is stable. Windows were tottaly dirt outside. Tried totake pictures but the dirt distorces didn't allow me. Parking lot is always full, no places to park nearby to the Lobby. For a one night stand is fair.More</t>
   </si>
   <si>
+    <t>Leatrice W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r467105349-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -542,6 +584,9 @@
     <t>Needed a 1 nighter, Holiday Inn to the rescue; The front desk reception was beyond professional, total explanations of all questions - Very kid friendly to the point of "sefies" winning! The room very clean, eloquent, and the bed very comfy.More</t>
   </si>
   <si>
+    <t>Want2TrvlMore_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r466650525-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -569,6 +614,9 @@
     <t>The Trip Advisor reviews hinted that it would be worth it to book the Executive Rooms instead of Standard ones...and so I did. And, I am glad. Excellent, clean, comfortable  King bed and all the amenities. Super comfy for 2 nights. Breakfast for two at the restaurant at top of the hotel included. Had fresh hot breakfast offerings (up to $12 per ticket) that were yummy. Excellent service in restaurant...nice view. Front Desk efficient and friendly. Will definitely return.More</t>
   </si>
   <si>
+    <t>Buck K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r452332780-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -623,6 +671,9 @@
     <t>Stayed over on December 23, 2016... I know they had undergone a significant upgrade and on this stay it was very nicely done/completed. The rooms were nice, the views were great, the coffee shop in the lobby was great. I did not get a chance to try the restaurant at the top of the hotel. Overall I gave it a 9 for sure.More</t>
   </si>
   <si>
+    <t>jvboyle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r447229431-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -644,6 +695,9 @@
     <t>I enjoyed a nice stay. The bed was comfortable, the bathroom was clean and well lit, and the internet/TV were great. The restaurant was under construction but the bar area, that served as a restaurant, was adequate​. Parking is plentiful (free) and the hotel is conveniently located near the airport and restaurants. I would be back.More</t>
   </si>
   <si>
+    <t>burnsomaha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r434011248-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -671,6 +725,9 @@
     <t>This hotel is undergoing a much-needed renovation. Unfortunately, I got one of the unrenovated rooms in the older, "motel" part of the complex. Good point: they took two rooms and made them into one - so it was a HUGE suite. Bad point: dated, noisy (with airport and vehicular traffic). Lobby had been renovated and the restaurant/bar has been moved to the first floor (at least for now). Nice. Ate there a couple of times. Good food. Good selection of beers. Sleeping room was decent. Like I said, it was huge. One room had desk, couch and lounge chair. The other room was the sleeping room. Each room had a door to the outside. Bed was ok. Pillows were king-sized which make them difficult to put where you want/need. Cleanliness was good. Staff at hotel was wonderful. Would I stay again?  Yes. Good value for the area. Safe.More</t>
   </si>
   <si>
+    <t>Randy N. W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r427059263-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -698,6 +755,9 @@
     <t>I had a reservation for 2 nights.  I was unable to make it to Long Beach for the first night due to a cancelled flight.  I was told at the front desk that I would not be charged for not showing up the first night due to circumstances outside of my control.   I was subsequently charged $156.34 by the hotel.  I called the hotel and was told to contact the accounting department.  After 3 tries I finally reached the accounting department.   The accounting department said they would investigate and that the there was a note in my account that I should not be charged.   The accounting department never called back.   After 10 days, I called back and they acted like they had no record or me calling the first time.  This place is a mess and needs to get their act together!!!More</t>
   </si>
   <si>
+    <t>X806DXmarkm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r425372532-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -720,6 +780,9 @@
   </si>
   <si>
     <t>Booked room 2 weeks ahead of time for week long business trip......was very specific to booking agent (whom which told me he work at said hotel)....that I wanted a room with a balcony, that being my #1 priority for the room. He assured me that he had 1 room left WITH outside balcony access....I immediately told him to book me.There was no balcony, booking agent did not work there and management seemed to care less.More</t>
+  </si>
+  <si>
+    <t>Lucia G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r408511218-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -751,6 +814,9 @@
 Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think...My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.   Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think at what will happen to my clothes after being put in the hot dryer as they are normally lined dry.  My luggage is also outside wrapped in a plastic bag. FYI - washing clothes in very hot water and putting them in very hot dryer is only way to get rid of beg bugs.The supervisor did say these rooms will be taken out of commission, but just be aware and take the necessary precautions.More</t>
   </si>
   <si>
+    <t>Calmhawk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r400104495-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -775,6 +841,9 @@
     <t>Very friendly and helpful staff - 5 stars thereRooms clean albeit small3 Stars for slamming doors, not insulated door which let it so much light that you always have twilight at night. The worst is the door to the adjacent room which is thin that one can hear the entire conversation next door. We had kids next door and they were goofing off (not party so we didn't call front desk) and we kept waking up...They also have paid parking that is not gated (we didn't use it)More</t>
   </si>
   <si>
+    <t>Tim V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r398997669-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -793,6 +862,9 @@
     <t>Not close to the beach.  The rooms are old, but they are trying to make them feel younger.  Not a great area of town.  All in all, I would not stay here again.  And, i would pay more to stay farther way for better comfort. More</t>
   </si>
   <si>
+    <t>Gina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r382818065-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -817,6 +889,9 @@
     <t>The physical condition of the hotel was fine, location was okay, but the front desk staff was rude and they were less than honest.  I will not return and I could not give a recommendation for this place when there are so many other options.More</t>
   </si>
   <si>
+    <t>ArturoArecha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r379755516-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -844,6 +919,9 @@
     <t>I book this hotel via Hotwire, howerver  i believe this should not be a reson to give lower quality rooms . The brand is Holiday  Inn and they should keep this level of quality , regardles of how you book it. The issue is thay have two buildings, the one tall one, that is shown in their web, and then a back one, which is a old style motel building.  Not only the rooms faces the street ( which makes them noizy)  but also they are not in the best shape. Old carpet, old style furniture,  So basicaily  not even a Holiday Inn Express categoryI can not neglect that the main building has a great apperance, and probably the rooms are quite nicer, but that is not what i got!!More</t>
   </si>
   <si>
+    <t>Chris C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r378313670-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -862,6 +940,9 @@
     <t>This is an outrage. This hotel looks nice, pretends to be your friend, but will charge For breakfast the next morning. HOW RUDE. I've never been to a holiday inn where breakfasts wasn't complimentary. This place should be destroyed immediately. Lol I'm being abit dramatic but seriously for the price of these rooms they should offer it free. Hotel staff is friendly and courteous and hotel is clean and by 405 freeway easy to find. More</t>
   </si>
   <si>
+    <t>Jeniece E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r367053980-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -889,6 +970,9 @@
     <t>Really nice room and beds, service was okay... My main issue is we were charged a $20 occupancy fee and $9 for parking so tack on another $30 to their nightly room rate and you've got an overpriced hotel. If it wasn't for that, I'd highly recommend this hotel. I prefer hotels that are up front with how much it really costs per night, not baits you in with a low accommodation cost and then charge all kinds of fees... Not cool. More</t>
   </si>
   <si>
+    <t>CFFC9973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r365870135-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -914,6 +998,9 @@
   </si>
   <si>
     <t>Visited the property in March 2016. My experience is based on my own observations and my own personal interaction with hotel staff. The property is trying to improve. If one reads the 2012 reviews a person would be crazy to stay here. But, since then it appears the hotel has slowly improved. All the review comments about noise are true. It is next to one of the busiest freeways in the world and there is an airport nearby as well. However, it is well placed for anyone needing a place to stay in southern LA county. The remodel seems to have helped reviews move into the three to five star range. It needed the remodel in many ways.My terrible experience occurred while personally  interacting with hotel management. I found management to be unreasonable and greed motivated. It would have been simple to resolve my concerns and issues in an equitable manner, but instead management chose to try to take advantage of my situation. Rather than you thinking this review is just an editorial, my review is based on my personal experience with staff, management and representatives of this hotel and I base my review of my experience with this hotel on my comparable experiences with many other hotel brands where my experiences were more positive under similar circumstances.More</t>
+  </si>
+  <si>
+    <t>EyeTravel4Fun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r363971974-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -1448,43 +1535,47 @@
       <c r="A2" t="n">
         <v>167</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>36551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1502,56 +1593,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>167</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1569,56 +1664,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>167</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1630,56 +1729,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>167</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1691,56 +1794,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>167</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192902</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1752,56 +1859,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>167</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192903</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1819,56 +1930,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>167</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192904</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1880,56 +1995,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>167</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192905</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1947,56 +2066,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>167</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>192906</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2012,56 +2135,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>167</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192907</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2077,56 +2204,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>167</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2138,56 +2269,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>167</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>192908</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2199,56 +2334,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>167</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192909</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2260,56 +2399,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>167</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>17423</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2327,56 +2470,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>167</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>70647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2394,56 +2541,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>167</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>28478</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2461,56 +2612,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>167</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192904</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2526,56 +2681,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="X18" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y18" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>167</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2587,56 +2746,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>167</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>192911</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2648,56 +2811,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>167</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192912</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2715,56 +2882,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="X21" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Y21" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>167</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192913</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2776,56 +2947,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="X22" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="Y22" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>167</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>192914</v>
+      </c>
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2841,56 +3016,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="X23" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="Y23" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>167</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>192915</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="K24" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2906,47 +3085,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="X24" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y24" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>167</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>24594</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="J25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
@@ -2963,47 +3146,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>167</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>24084</v>
+      </c>
+      <c r="C26" t="s">
+        <v>280</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -3020,56 +3207,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>167</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>192916</v>
+      </c>
+      <c r="C27" t="s">
+        <v>289</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3087,56 +3278,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="X27" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>167</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>621</v>
+      </c>
+      <c r="C28" t="s">
+        <v>299</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3148,56 +3343,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>167</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>192917</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3209,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="X29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>167</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>192918</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="K30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3270,56 +3473,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="X30" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Y30" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>167</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>192919</v>
+      </c>
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="J31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3337,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="X31" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_383.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,135 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Robert Y</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r612977588-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>77600</t>
+  </si>
+  <si>
+    <t>612977588</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>old-school circular tower hotel, but updated and in excellent condition.</t>
+  </si>
+  <si>
+    <t>This is one of the old-school Holiday Inns: a circular tower, so rooms are a bit wedge shaped. The whole hotel seems to have been updated recently and is well maintained.Check in was very pleasant.  Parking fee waived because I was IHG premium member (but only $9 if you have to pay).Our room faced north, looking onto the 405 and the Long Beach Airport. However, sound isolation was good, so the freeway did not bother us. Next time, I'd request a room facing south, which might have  a view to the Long Beach Harbor, if clear.Location was ideal for us, between Long Beach and Bellflower, with easy access to the 405 and Lakewood Blvd. Sunday morning breakfast buffet was OK, but could have stood more diners: the scrambled eggs and French toast had been there a while, so the eggs were dry and toast was stuck to the steaming tray. They need more turnover.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Moyoon K, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This is one of the old-school Holiday Inns: a circular tower, so rooms are a bit wedge shaped. The whole hotel seems to have been updated recently and is well maintained.Check in was very pleasant.  Parking fee waived because I was IHG premium member (but only $9 if you have to pay).Our room faced north, looking onto the 405 and the Long Beach Airport. However, sound isolation was good, so the freeway did not bother us. Next time, I'd request a room facing south, which might have  a view to the Long Beach Harbor, if clear.Location was ideal for us, between Long Beach and Bellflower, with easy access to the 405 and Lakewood Blvd. Sunday morning breakfast buffet was OK, but could have stood more diners: the scrambled eggs and French toast had been there a while, so the eggs were dry and toast was stuck to the steaming tray. They need more turnover.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r597192899-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>597192899</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Still Great</t>
+  </si>
+  <si>
+    <t>Second stay...reviewed this hotel last year, and on my return found my 12th floor room (King) wonderful, clean, quiet, comfortable...lovely. Great place very close to airport. Cocktail at the bar was a little pricey ($14). Breakfast is no longer made to order (darn), but buffet is fresh and warm...opens at 6 am which I always appreciate since I take the first flight out. Staff at this place are very friendly. Will stay again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Moyoon K, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Second stay...reviewed this hotel last year, and on my return found my 12th floor room (King) wonderful, clean, quiet, comfortable...lovely. Great place very close to airport. Cocktail at the bar was a little pricey ($14). Breakfast is no longer made to order (darn), but buffet is fresh and warm...opens at 6 am which I always appreciate since I take the first flight out. Staff at this place are very friendly. Will stay again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r606521042-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>606521042</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Service</t>
+  </si>
+  <si>
+    <t>Outstanding service by David/Front Desk.  He is knowledgeable and a true professional!  He assisted with concierge services as well.  He discovered a  salon that was open on a Monday. assisted with a reservation and help provide transportation.Noel and Eddie, van drivers provided exceptional services as well as housekeeping staff Maria and Marleen.  Be sure to check out the restaurant on top.  First class/Exceptional service by Chad and Gibson, waiters.  Bartender,  Lorenzo is amazing.  The superstar is David/Front Desk.   He is the reason we will return again and again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r597176899-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>597176899</t>
+  </si>
+  <si>
+    <t>Poor security</t>
+  </si>
+  <si>
+    <t>My wife needed to go to Los Angeles for a business trip. Myself, her husband and her five-month-old son went with her. The building lacks proper security. The elevator has a device that uses your hotel room key to go to your floor. that device does not work, it is a false sense of security. the hotel has an unarmed security guard at night time, who is severely obese with a long ponytail. Around 2 p. M. A transient enter the lobby, he had a broken arm and wristbands from the local hospital. The man look like he needed some help. He was also trespassing. He had a large amount of shampoo in his hair and was looking at my son and I in an awkward way. I told the hotel staff, but they did not remove them. I showed the transient my large can of pepper spray. Never saw him again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My wife needed to go to Los Angeles for a business trip. Myself, her husband and her five-month-old son went with her. The building lacks proper security. The elevator has a device that uses your hotel room key to go to your floor. that device does not work, it is a false sense of security. the hotel has an unarmed security guard at night time, who is severely obese with a long ponytail. Around 2 p. M. A transient enter the lobby, he had a broken arm and wristbands from the local hospital. The man look like he needed some help. He was also trespassing. He had a large amount of shampoo in his hair and was looking at my son and I in an awkward way. I told the hotel staff, but they did not remove them. I showed the transient my large can of pepper spray. Never saw him again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r591198537-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>591198537</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Needed nearby hotel to The Grand Events Center in Long Beach</t>
+  </si>
+  <si>
+    <t>Better than expected, new and modern lobby.  Clean and well appointed guest rooms. Great customer service - - - hats off to the doorman/driver/bellman/jack of all!   Bartenders super fun but bar closed a bit early - not much gong on in LB on a Wed night I guess.  Breakfast bar in the am was perfect for grabbing coffee and a banana, etc.   Would def. stay again if I am in the area and actually have already referred to someone who is heading to LB next month!MoreShow less</t>
+  </si>
+  <si>
+    <t>Moyoon K, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Better than expected, new and modern lobby.  Clean and well appointed guest rooms. Great customer service - - - hats off to the doorman/driver/bellman/jack of all!   Bartenders super fun but bar closed a bit early - not much gong on in LB on a Wed night I guess.  Breakfast bar in the am was perfect for grabbing coffee and a banana, etc.   Would def. stay again if I am in the area and actually have already referred to someone who is heading to LB next month!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r579325850-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
-    <t>32648</t>
-  </si>
-  <si>
-    <t>77600</t>
-  </si>
-  <si>
     <t>579325850</t>
   </si>
   <si>
@@ -192,9 +306,6 @@
     <t>Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the...Hello, I hope you are doing well.  I want to share the feedback about during my stay experience at this hotel.  It was ok enjoy staying at this hotel however, I am disappointed with a few problem issues were not too happy during my stay.  1.  Before I arrived to check in at the hotel and I did talk with someone at this hotel and he said he is a PBX Operator and it sounds alike he is not PBX Operator through phone call and I just did find out that he is a General Manager at this hotel.  I feel do not understand why he was dishonesty with me about his job title position.  Secondly, the room was ok and not good view of the plants block the window on the 8th floors due I did request airport view on any floors and the front desks told me that all of the floors with the airport views were occupied.  Third, The hotel shuttle driver was not helping me at all and he refused unloaded and loaded my luggage and bag and I have have unloaded and loaded my luggage and bag on my own because the hotel shuttle driver said that his back is hurting.   I feel waste my time book a reservation with the points for the free night stay when I was not satisfied with these issues during my stay.  I also a not too satisfied the showers on/off switch due it become loose itself and the water temperature was hot when the switch go down to the hot water temperature.  I hope someone can send me compensate due of these issues.  I don't think want to stay there again.  I thought this hotel is with the IHG company and I thought the IHG Company suppose to see all of IHG hotels need to take care of guests that is called IHG Cares but this hotel is not sounds and don't care about IHG Cares. :(.More</t>
   </si>
   <si>
-    <t>Bill C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r564086665-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -213,9 +324,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded March 5, 2018</t>
   </si>
   <si>
@@ -225,9 +333,6 @@
     <t>The service was slow and seemed to be uninterested in the customer. Not were you want to go. I will never go to another event at this place. It is freeway close but the do not seem to know that the customer pays the cost for service and was talking to be served.More</t>
   </si>
   <si>
-    <t>Mark M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r541851314-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -246,9 +351,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 20, 2017</t>
   </si>
   <si>
@@ -258,7 +360,55 @@
     <t>If you need a cheap and Terrible place to stay... you have found it.  Rude staff. Horrible smell.  Only good thing is it was just for one night.  Stay nowhere else.  I promise you will be better off.  There is nothing good about this place.More</t>
   </si>
   <si>
-    <t>Mike F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r538497222-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>538497222</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Extremely Disappointing Stay</t>
+  </si>
+  <si>
+    <t>I usually do not leave reviews but I had to for this property I cannot  give this property less than one star or I would. The problem is that there are two buildings for this Holiday Inn the main tower and a property in the back. I have no doubt that the rooms is in the tower are very nice the lobby is extremely nice however if you get stuck in what they call the West Wing you will be extremely disappointed this building is basically worse than a Motel 6. The rooms are very small the bed was at least comfortable however the noise from the street is very loud. I talked to the front desk three times to try to move and we were not able to do this. I would not stay here again. They should advertise that you may end up in an area that is not the quality of what a Holiday Inn should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>I usually do not leave reviews but I had to for this property I cannot  give this property less than one star or I would. The problem is that there are two buildings for this Holiday Inn the main tower and a property in the back. I have no doubt that the rooms is in the tower are very nice the lobby is extremely nice however if you get stuck in what they call the West Wing you will be extremely disappointed this building is basically worse than a Motel 6. The rooms are very small the bed was at least comfortable however the noise from the street is very loud. I talked to the front desk three times to try to move and we were not able to do this. I would not stay here again. They should advertise that you may end up in an area that is not the quality of what a Holiday Inn should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r535981930-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>535981930</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Very Good, Just a Bit Noisy</t>
+  </si>
+  <si>
+    <t>Every staff person I spoke with was helpful and friendly. Top-notch people working here!The room and common spaces were updated, very pleasant, clean and attractive. The bed was very comfortable. The room was laid out nicely to allow one to work if needed. Breakfast was good and a bonus to have it on the top floor with a great view.Location is very convenient to Long Beach Airport. Just be aware that this convenience comes with a fair amount of noise from the airport (starting at 7am) and the adjacent 405 freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Every staff person I spoke with was helpful and friendly. Top-notch people working here!The room and common spaces were updated, very pleasant, clean and attractive. The bed was very comfortable. The room was laid out nicely to allow one to work if needed. Breakfast was good and a bonus to have it on the top floor with a great view.Location is very convenient to Long Beach Airport. Just be aware that this convenience comes with a fair amount of noise from the airport (starting at 7am) and the adjacent 405 freeway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r534908773-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -276,9 +426,6 @@
     <t>Stayed here for business, nice clean room, friendly and helpful staff. Vue restaurant on the penthouse has a great happy hour with 1/2 price appetizers and of course a great vue! A variety of restaurants eithin ealking distance. Happy with my stay.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Moyoon K, Owner at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 24, 2017</t>
   </si>
   <si>
@@ -288,9 +435,6 @@
     <t>Stayed here for business, nice clean room, friendly and helpful staff. Vue restaurant on the penthouse has a great happy hour with 1/2 price appetizers and of course a great vue! A variety of restaurants eithin ealking distance. Happy with my stay.More</t>
   </si>
   <si>
-    <t>Jadfly</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r530565099-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -318,9 +462,6 @@
     <t>This was a good value versus the pricier properties near the convention center. Although my room faced the airport there wasn't any noise that would disrupt a good nights sleep. The property is nicely remodeled, has a small cafe that sells Peets coffee (Yes!) as well as a self-serve snack area for early/late hours. Everyone was courteous and the room was modern and clean. I visited the Vue bar one evening for dinner and was warmly greeted and attended to; very handy for not having to go anywhere else at end of a long day. My only gripe was the parking charge. I don't see how that ensures that guests have space to park because it would not change the number of guest vehicles. Gas station next door; very handy.More</t>
   </si>
   <si>
-    <t>ANTH5656</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r528831886-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -345,7 +486,61 @@
     <t>Clean rooms and clean lobby but the front desk staff seemed overworked.  Even though I was the only one trying to check in at the time.  He kept blaming it on computer issues.  Pros and cons of every hotel stay and this one is no exception.Disappointed by the fact that no one could tell me why the coffee bar in the lobby was closed by 11:50 AM. I am appreciative of the laundry facilities..Just they were just a single washer and dryer at the end of a hallway on the 1st floor completely unsecured.Room was small and and I not sure that I got the executive room that I paid for.PRO:  Close to Long Beach Airport which is why I picked this property for a very early morning 5:40 AM depurate.More</t>
   </si>
   <si>
-    <t>Robyn O</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r527364653-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>527364653</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>50th High School Reunion</t>
+  </si>
+  <si>
+    <t>We traveled to Long Beach for my husband's 50th high school reunion and stayed at the Holiday Inn Long Beach Airport (where I stayed the night before our wedding 45 years ago). The hotel has recently been remodeled and it is beautiful; the rooms are great and very quiet even though the hotel is so close to the airport. It is conveniently located to many attractions in the area and I would stay there again if I am ever in the vicinity.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r522005661-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>522005661</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice rooms!!</t>
+  </si>
+  <si>
+    <t>I always stay at IHG hotels and this one was one of the better ones. It's newly updated, coffee bar and regular bar! There is a gas station next door and a shuttle to/from the airport. I walked about a mile down to an area with shops and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r509368068-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>509368068</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Over Priced</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel for more than 20 years both business and family related   During that period of time we have seen many upgrades but price is above the level of hotel.  In addition the hotel instuted a parking fee and is not in a business or resort district.  This weekend we spent more than $600 for 2 night stay which included city tax.  We were provided ONE small bar of soap during the stay for shower and sink for the two nights.  Charge top dollar but  cheap out on soap.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel for more than 20 years both business and family related   During that period of time we have seen many upgrades but price is above the level of hotel.  In addition the hotel instuted a parking fee and is not in a business or resort district.  This weekend we spent more than $600 for 2 night stay which included city tax.  We were provided ONE small bar of soap during the stay for shower and sink for the two nights.  Charge top dollar but  cheap out on soap.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r502480066-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -377,9 +572,6 @@
 The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise'...I would agree with past reviews, the cost of the hotel room does not match accommodations. I also stayed on the 12th floor and had to endure with chairs dragging across the floor...fortunately, I was pretty exhausted so that did not matter. I was given a king-bed sized room which is shaped like a pie shape. This pie-shape size room is largely smaller than most hotels, so I with one person, the size was do-able. With another person, the size would have been too cramped. Essentially, there is only room for one bed and the wall unit with the wardrobe (no room for a closet), TV, and fridge. The water pressure to the 12th floor must be difficult as it felt as if I was showering under a hose. For $175 a night, I would expect slightly better. The other gripe I have is the added $9 per night parking fee. The parking fee was unnecessary as I did not see any security walking around nor is it gated. Be aware, this hotel is not in the greatest of area.The plus to the hotel includes a convenient washer and drawer (which I used) and computer access area (equipped with a nice printer). There's a fantastic sushi bar/restaurant across the street which is quite yummy. The location of the hotel is directly off the 405 freeway, so it is both convenient and you get a steady stream of 'white noise' if you're facing the freeway. I stayed here for business for two nights. Would I stay here again? No likely not- Too many other options a shorter drive away. Simply, the cost for the room and parking did not match what I would be willing to spend outside of work. More</t>
   </si>
   <si>
-    <t>ROBERT G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r501114667-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -407,9 +599,6 @@
     <t>Cost is not commensurate with hotel, restaurant, or service. Hotel is noisy and especially if you stay on the 12 floor there is lots of stomping noises and rolling cart noises well into the night. The restaurant and bar are the next level. Also don't let them con you into a  handicap room if you don't need it. Parking for this palace is $9.00 a night now just because they need the money. A year ago it was free, 2 years ago free, 20 years ago free, now 9.00.. Food was mediocre, service was ok, For a romantic dining experience "DONT GO HERE". I will return, NEVER to this hotel. Whomever took it over has ruined it as far as I am concerned..More</t>
   </si>
   <si>
-    <t>Ty P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r500360409-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -434,7 +623,52 @@
     <t>Clean property and the restaurant was great. The event I was attending was catered by the hotel and the food was well prepared and presented. Each day we were served breakfast and lunch. The facility has a shuttle but only for the Long Beach Airport not LAXMore</t>
   </si>
   <si>
-    <t>happygrl2907</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r493618102-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>493618102</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Really Good Stay</t>
+  </si>
+  <si>
+    <t>Came in for a cruise and spent the night here before flying back home. LOVE the staff! Super friendly. Highly recommend this hotel. Free airport shuttle! Really good stay, fantastic rooms, free Internet and just a relaxing stay overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Came in for a cruise and spent the night here before flying back home. LOVE the staff! Super friendly. Highly recommend this hotel. Free airport shuttle! Really good stay, fantastic rooms, free Internet and just a relaxing stay overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r492696133-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>492696133</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Manny the guy running the front desk is the bomb!</t>
+  </si>
+  <si>
+    <t>We checked in super late like at midnight and had to leave at 5 a.m. . Both times when we checked in the guy was amazingly friendly optimistic happy and Susie Astic. And when we checked out he was even happier. Remembered all the kids remembered the family and was just a happy very positive outgoing guy. If I could give him 10 stars for customer service and Hospitality I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>We checked in super late like at midnight and had to leave at 5 a.m. . Both times when we checked in the guy was amazingly friendly optimistic happy and Susie Astic. And when we checked out he was even happier. Remembered all the kids remembered the family and was just a happy very positive outgoing guy. If I could give him 10 stars for customer service and Hospitality I would.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r492051797-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -464,9 +698,6 @@
     <t>We booked one night after our cruise so we could site-see in the LA area.  We arrived too early to check in, but staff was glad to hold all of our bags while we explored the city.  One particular staff member helped us with planning things to do for the day!  When we did check in later that night, the staff was very friendly, room was clean, comfortable and quiet.  Loved the sunset views from the restaurant and bar!  We would definitely stay here again if we are ever in Long Beach.More</t>
   </si>
   <si>
-    <t>Michael G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r486215605-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -482,9 +713,6 @@
     <t>We stayed here as it was close to my daughter's house. Really nice hotel conveniently located. 25 minutes from LAX, 5 minutes from long beach airport. Really well maintained. Rooms were nice and clean. Pool, restaurant, bar and coffee shop all on the grounds. Shuttle runs to long beach airport frequently. We looked it allot as it was friendly and clean. We will stay there again. Parking does cost if you are not a high level ihg reward member. Free if you are...EnjoyMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Management response:Responded May 23, 2017</t>
   </si>
   <si>
@@ -494,9 +722,6 @@
     <t>We stayed here as it was close to my daughter's house. Really nice hotel conveniently located. 25 minutes from LAX, 5 minutes from long beach airport. Really well maintained. Rooms were nice and clean. Pool, restaurant, bar and coffee shop all on the grounds. Shuttle runs to long beach airport frequently. We looked it allot as it was friendly and clean. We will stay there again. Parking does cost if you are not a high level ihg reward member. Free if you are...EnjoyMore</t>
   </si>
   <si>
-    <t>WhatsTheTee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r485988412-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -524,7 +749,58 @@
     <t>Booked this place on Hotwire. Not a bad looking hotel. Great looking hotel, decent sized modern looking rooms. Pool was ok. Manny had great customer service when we checked in very courteous and fast! Would probably stay here again. Heads up, u do need to purchase a parking pass and the wifi was pretty slow. More</t>
   </si>
   <si>
-    <t>FRANKNORIO</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r475911091-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>475911091</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Older hotel. Well maintained with an excellent staff.</t>
+  </si>
+  <si>
+    <t>I spent three days there on a business trip. The hotel, although older, was well maintained. The staff, very courteous and helpful. The only negative I had, which kept me from giving them a 5 star rating, was the Vue restaurant on the top floor (see separate review for the Vue). Although the view from the penthouse restaurant was great, there were issues with the cleanliness. Would I stay there again, probably. Would I eat at the Vue again, debatable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I spent three days there on a business trip. The hotel, although older, was well maintained. The staff, very courteous and helpful. The only negative I had, which kept me from giving them a 5 star rating, was the Vue restaurant on the top floor (see separate review for the Vue). Although the view from the penthouse restaurant was great, there were issues with the cleanliness. Would I stay there again, probably. Would I eat at the Vue again, debatable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r474082067-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>474082067</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Thanks for the Save</t>
+  </si>
+  <si>
+    <t>My boyfriend and I was suppose to stay at the Super 8 Long Beach for a very short stay after driving from a conference in Las Vegas.  Let me start by saying, NEVER EVER go to this flee bag establishment.  The motel was dirty, grimy, and sleezy looking.  The front end would not give me a refund after I paid $350 for 2 nights.Went on TripAdvisor and the hotel honored the price shown on TripAdvisor.  WHAT A SAVING MOMENT.  The staff was great.  We explained our horror story to the front desk.  The first thing the staff said was, we are very sorry for your experience and we hope you will enjoy visiting our city.  The front end manger on Friday April 7, 2017, was awesome at giving us advice on what to do in the area.  The rooms were clean and the beds were comfortable.  Close to eating areas and the highway.  Guess what, this hotel has now become base for any visit to the Long Beach area.  Thanks again for turning our trip around.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>My boyfriend and I was suppose to stay at the Super 8 Long Beach for a very short stay after driving from a conference in Las Vegas.  Let me start by saying, NEVER EVER go to this flee bag establishment.  The motel was dirty, grimy, and sleezy looking.  The front end would not give me a refund after I paid $350 for 2 nights.Went on TripAdvisor and the hotel honored the price shown on TripAdvisor.  WHAT A SAVING MOMENT.  The staff was great.  We explained our horror story to the front desk.  The first thing the staff said was, we are very sorry for your experience and we hope you will enjoy visiting our city.  The front end manger on Friday April 7, 2017, was awesome at giving us advice on what to do in the area.  The rooms were clean and the beds were comfortable.  Close to eating areas and the highway.  Guess what, this hotel has now become base for any visit to the Long Beach area.  Thanks again for turning our trip around.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r473381446-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -542,9 +818,6 @@
     <t>Stayed for 1 night only, but it is anoying to have the restaurant above your head with carts rolling, people walking, things falling and you hearing all at your bed, trying to sleep. The room itself is clean, Toletry is fair, Shower doesn' t have pressure in the water, but temperature is stable. Windows were tottaly dirt outside. Tried totake pictures but the dirt distorces didn't allow me. Parking lot is always full, no places to park nearby to the Lobby. For a one night stand is fair.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded April 10, 2017</t>
   </si>
   <si>
@@ -554,9 +827,6 @@
     <t>Stayed for 1 night only, but it is anoying to have the restaurant above your head with carts rolling, people walking, things falling and you hearing all at your bed, trying to sleep. The room itself is clean, Toletry is fair, Shower doesn' t have pressure in the water, but temperature is stable. Windows were tottaly dirt outside. Tried totake pictures but the dirt distorces didn't allow me. Parking lot is always full, no places to park nearby to the Lobby. For a one night stand is fair.More</t>
   </si>
   <si>
-    <t>Leatrice W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r467105349-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -572,9 +842,6 @@
     <t>Needed a 1 nighter, Holiday Inn to the rescue; The front desk reception was beyond professional, total explanations of all questions - Very kid friendly to the point of "sefies" winning! The room very clean, eloquent, and the bed very comfy.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded March 15, 2017</t>
   </si>
   <si>
@@ -584,9 +851,6 @@
     <t>Needed a 1 nighter, Holiday Inn to the rescue; The front desk reception was beyond professional, total explanations of all questions - Very kid friendly to the point of "sefies" winning! The room very clean, eloquent, and the bed very comfy.More</t>
   </si>
   <si>
-    <t>Want2TrvlMore_11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r466650525-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -614,7 +878,55 @@
     <t>The Trip Advisor reviews hinted that it would be worth it to book the Executive Rooms instead of Standard ones...and so I did. And, I am glad. Excellent, clean, comfortable  King bed and all the amenities. Super comfy for 2 nights. Breakfast for two at the restaurant at top of the hotel included. Had fresh hot breakfast offerings (up to $12 per ticket) that were yummy. Excellent service in restaurant...nice view. Front Desk efficient and friendly. Will definitely return.More</t>
   </si>
   <si>
-    <t>Buck K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r461045533-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>461045533</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Good, Average Hotel</t>
+  </si>
+  <si>
+    <t>This HI was very clean, neat and modern. The staff were friendly and personable. I was charged $9 to use the public access parking lot, which was flooded with 4" of water, but it was a terrible storm. I'm giving an average rating because the experience was just that. The price coupled with the service and facilities was just not exciting or exceptional in any way. The staff were great, but did not seem to have had any hospitality industry training. They tried hard and get good marks for that!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>This HI was very clean, neat and modern. The staff were friendly and personable. I was charged $9 to use the public access parking lot, which was flooded with 4" of water, but it was a terrible storm. I'm giving an average rating because the experience was just that. The price coupled with the service and facilities was just not exciting or exceptional in any way. The staff were great, but did not seem to have had any hospitality industry training. They tried hard and get good marks for that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r452819041-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>452819041</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Completely Remodeled</t>
+  </si>
+  <si>
+    <t>I stayed here in the mid '90's when my dad was living in Long Beach. My dad has since passed away but my stepmother still lives there with her son and his wife (she is 84). I hated it in the late 1990's as it was run down and dirty. I have not seen my stepmother in almost 7 years so my wife and I decided to travel down to the LA basin and visit her over MLK Day weekend. She mentioned to me that we should find a hotel close to their house and the only one I could think of was the Long Beach Airport Holiday Inn, after looking at it online I was shocked. It was awesome. Completely new inside from top to bottom plus a new returant and bar on the top floor. H inn built several of these completely round tower hotels in the basin back in the '60's and I believe they are somewhat unique to LA. We reserved a huge executive suite so my stepmother and the two of us would have plenty of room to talk without having to sit on a bed or beds in a normal room. I was very very nice with 2 batrooms and plenty of space including a large kitchen area (though, of course no burners or stove). The restaurant food was fantastic (although not the ala carte prices) and the bar was great to watch the...I stayed here in the mid '90's when my dad was living in Long Beach. My dad has since passed away but my stepmother still lives there with her son and his wife (she is 84). I hated it in the late 1990's as it was run down and dirty. I have not seen my stepmother in almost 7 years so my wife and I decided to travel down to the LA basin and visit her over MLK Day weekend. She mentioned to me that we should find a hotel close to their house and the only one I could think of was the Long Beach Airport Holiday Inn, after looking at it online I was shocked. It was awesome. Completely new inside from top to bottom plus a new returant and bar on the top floor. H inn built several of these completely round tower hotels in the basin back in the '60's and I believe they are somewhat unique to LA. We reserved a huge executive suite so my stepmother and the two of us would have plenty of room to talk without having to sit on a bed or beds in a normal room. I was very very nice with 2 batrooms and plenty of space including a large kitchen area (though, of course no burners or stove). The restaurant food was fantastic (although not the ala carte prices) and the bar was great to watch the Pats/Texans NFL playoff game. Our room was fairly reasonable for what we got especially on a Saturday night. We loved the bed and the 70" LG flatscreen in the living/dining room was awesome. The furniture even smelled new. Overall a great stay. The living area bathroom had a bad J-Trap though as we were gettting some bad smel but we just closed the plug in the sink and reported it when we checked out. Great Stay and a view of the LB Airport runways which I loved to watch Jet Blue and SW take off every hour or so and no takeoffs after 10PM.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here in the mid '90's when my dad was living in Long Beach. My dad has since passed away but my stepmother still lives there with her son and his wife (she is 84). I hated it in the late 1990's as it was run down and dirty. I have not seen my stepmother in almost 7 years so my wife and I decided to travel down to the LA basin and visit her over MLK Day weekend. She mentioned to me that we should find a hotel close to their house and the only one I could think of was the Long Beach Airport Holiday Inn, after looking at it online I was shocked. It was awesome. Completely new inside from top to bottom plus a new returant and bar on the top floor. H inn built several of these completely round tower hotels in the basin back in the '60's and I believe they are somewhat unique to LA. We reserved a huge executive suite so my stepmother and the two of us would have plenty of room to talk without having to sit on a bed or beds in a normal room. I was very very nice with 2 batrooms and plenty of space including a large kitchen area (though, of course no burners or stove). The restaurant food was fantastic (although not the ala carte prices) and the bar was great to watch the...I stayed here in the mid '90's when my dad was living in Long Beach. My dad has since passed away but my stepmother still lives there with her son and his wife (she is 84). I hated it in the late 1990's as it was run down and dirty. I have not seen my stepmother in almost 7 years so my wife and I decided to travel down to the LA basin and visit her over MLK Day weekend. She mentioned to me that we should find a hotel close to their house and the only one I could think of was the Long Beach Airport Holiday Inn, after looking at it online I was shocked. It was awesome. Completely new inside from top to bottom plus a new returant and bar on the top floor. H inn built several of these completely round tower hotels in the basin back in the '60's and I believe they are somewhat unique to LA. We reserved a huge executive suite so my stepmother and the two of us would have plenty of room to talk without having to sit on a bed or beds in a normal room. I was very very nice with 2 batrooms and plenty of space including a large kitchen area (though, of course no burners or stove). The restaurant food was fantastic (although not the ala carte prices) and the bar was great to watch the Pats/Texans NFL playoff game. Our room was fairly reasonable for what we got especially on a Saturday night. We loved the bed and the 70" LG flatscreen in the living/dining room was awesome. The furniture even smelled new. Overall a great stay. The living area bathroom had a bad J-Trap though as we were gettting some bad smel but we just closed the plug in the sink and reported it when we checked out. Great Stay and a view of the LB Airport runways which I loved to watch Jet Blue and SW take off every hour or so and no takeoffs after 10PM.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r452332780-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -632,9 +944,6 @@
     <t>Rooms are nice, good wifi, and good food on the top Restaurant ..Don't expect the check in girls to follow up on thing like cabs, rides, ect.Setup a limo to LAX, checked with them 3 times before I went to bed and "No problem"they said       { BAMM }came down in the morning and NO ONE NEW anything about it..........MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded January 26, 2017</t>
   </si>
   <si>
@@ -671,9 +980,6 @@
     <t>Stayed over on December 23, 2016... I know they had undergone a significant upgrade and on this stay it was very nicely done/completed. The rooms were nice, the views were great, the coffee shop in the lobby was great. I did not get a chance to try the restaurant at the top of the hotel. Overall I gave it a 9 for sure.More</t>
   </si>
   <si>
-    <t>jvboyle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r447229431-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -695,7 +1001,55 @@
     <t>I enjoyed a nice stay. The bed was comfortable, the bathroom was clean and well lit, and the internet/TV were great. The restaurant was under construction but the bar area, that served as a restaurant, was adequate​. Parking is plentiful (free) and the hotel is conveniently located near the airport and restaurants. I would be back.More</t>
   </si>
   <si>
-    <t>burnsomaha</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r444839277-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>444839277</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable stay; super quick to Long Beach Airport</t>
+  </si>
+  <si>
+    <t>One night stay on business; arrived at 3pm and was very promptly provided my room.  Staff very helpful and attentive.  WIFI good and business office easy to use. Location very easily accessed from I-405.  Hotel in final stages of renovations, but seemed to be working through it just fine.  Classic 12-story round Holiday Inn.  Room freshly updated; very clean and surprisingly quiet with airport and the 405 right to the east.  Long Beach airport terminal just minutes away, gas station adjacent to hotel for quick fuel up of rental car.  I will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>One night stay on business; arrived at 3pm and was very promptly provided my room.  Staff very helpful and attentive.  WIFI good and business office easy to use. Location very easily accessed from I-405.  Hotel in final stages of renovations, but seemed to be working through it just fine.  Classic 12-story round Holiday Inn.  Room freshly updated; very clean and surprisingly quiet with airport and the 405 right to the east.  Long Beach airport terminal just minutes away, gas station adjacent to hotel for quick fuel up of rental car.  I will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r435341094-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>435341094</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Untrustworthy associates</t>
+  </si>
+  <si>
+    <t>Came to Long Beach for business for 2 weeks, booked room but was lured into false room......management did not care.....was asked to call Robert Smit, whom I guess is property manager, to call him.Called several times, several voice mails......he was on vacation till the 31st of oct.......this hotel does not care!!! Save your money, go somewhere else with better customer service.Sincerely, IHG Reward member (means nothing)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Came to Long Beach for business for 2 weeks, booked room but was lured into false room......management did not care.....was asked to call Robert Smit, whom I guess is property manager, to call him.Called several times, several voice mails......he was on vacation till the 31st of oct.......this hotel does not care!!! Save your money, go somewhere else with better customer service.Sincerely, IHG Reward member (means nothing)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r434011248-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -716,18 +1070,9 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 10, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 10, 2016</t>
-  </si>
-  <si>
     <t>This hotel is undergoing a much-needed renovation. Unfortunately, I got one of the unrenovated rooms in the older, "motel" part of the complex. Good point: they took two rooms and made them into one - so it was a HUGE suite. Bad point: dated, noisy (with airport and vehicular traffic). Lobby had been renovated and the restaurant/bar has been moved to the first floor (at least for now). Nice. Ate there a couple of times. Good food. Good selection of beers. Sleeping room was decent. Like I said, it was huge. One room had desk, couch and lounge chair. The other room was the sleeping room. Each room had a door to the outside. Bed was ok. Pillows were king-sized which make them difficult to put where you want/need. Cleanliness was good. Staff at hotel was wonderful. Would I stay again?  Yes. Good value for the area. Safe.More</t>
   </si>
   <si>
-    <t>Randy N. W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r427059263-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -743,9 +1088,6 @@
     <t>I had a reservation for 2 nights.  I was unable to make it to Long Beach for the first night due to a cancelled flight.  I was told at the front desk that I would not be charged for not showing up the first night due to circumstances outside of my control.   I was subsequently charged $156.34 by the hotel.  I called the hotel and was told to contact the accounting department.  After 3 tries I finally reached the accounting department.   The accounting department said they would investigate and that the there was a note in my account that I should not be charged.   The accounting department never called back.   After 10 days, I called back and they acted like they had no record or me calling the first time.  This place is a mess and needs to get their act together!!!MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded October 14, 2016</t>
   </si>
   <si>
@@ -755,9 +1097,6 @@
     <t>I had a reservation for 2 nights.  I was unable to make it to Long Beach for the first night due to a cancelled flight.  I was told at the front desk that I would not be charged for not showing up the first night due to circumstances outside of my control.   I was subsequently charged $156.34 by the hotel.  I called the hotel and was told to contact the accounting department.  After 3 tries I finally reached the accounting department.   The accounting department said they would investigate and that the there was a note in my account that I should not be charged.   The accounting department never called back.   After 10 days, I called back and they acted like they had no record or me calling the first time.  This place is a mess and needs to get their act together!!!More</t>
   </si>
   <si>
-    <t>X806DXmarkm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r425372532-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -782,7 +1121,49 @@
     <t>Booked room 2 weeks ahead of time for week long business trip......was very specific to booking agent (whom which told me he work at said hotel)....that I wanted a room with a balcony, that being my #1 priority for the room. He assured me that he had 1 room left WITH outside balcony access....I immediately told him to book me.There was no balcony, booking agent did not work there and management seemed to care less.More</t>
   </si>
   <si>
-    <t>Lucia G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r423370759-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>423370759</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Pretty good hotel</t>
+  </si>
+  <si>
+    <t>I've stayed here three times now and it really is a good hotel.  Room is spacious, but the bathroom seems to barely fit in the room.  Door is only centimeters from the toilet!  Shower is decent although the water can get pretty hot.  Room comes equipped with a hair dryer, mini Keurig coffee maker, fridge, and A/C.  The A/C worked really well.  Bed was super comfortable.  I called ahead of time because I wanted to check in early and the hotel staff was very nice and accommodating.  My only real complaint is the room service.  I ordered breakfast for two and they gave me orange juice when I asked for apple juice and wheat toast when I asked for white.  Other than that, the food is good.  Room views are great.  Airport noise is not that bad, but I liked watching the planes.  Very close to Lakewood Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, General Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here three times now and it really is a good hotel.  Room is spacious, but the bathroom seems to barely fit in the room.  Door is only centimeters from the toilet!  Shower is decent although the water can get pretty hot.  Room comes equipped with a hair dryer, mini Keurig coffee maker, fridge, and A/C.  The A/C worked really well.  Bed was super comfortable.  I called ahead of time because I wanted to check in early and the hotel staff was very nice and accommodating.  My only real complaint is the room service.  I ordered breakfast for two and they gave me orange juice when I asked for apple juice and wheat toast when I asked for white.  Other than that, the food is good.  Room views are great.  Airport noise is not that bad, but I liked watching the planes.  Very close to Lakewood Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r411251846-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>411251846</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Aging hotel</t>
+  </si>
+  <si>
+    <t>This hotel is aging. It is in need of a  room restoration. Especially the carpets. Very dirty carpets (in  the room). The bathroom needs a renovation.  And you can hear the freeway from my room.(9th floor) . Lobby is nice and staff is friendly. The hotel has a shuttle bus driver . Extremely friendly and fast. Never waited for him. Wifi is good, but not my favorite stay .There's nothing around there area. You can't even walk around the area  no sidewalks.  I don't think I would stay here again. Stay up the road in the Marriot. Trust me way better.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel is aging. It is in need of a  room restoration. Especially the carpets. Very dirty carpets (in  the room). The bathroom needs a renovation.  And you can hear the freeway from my room.(9th floor) . Lobby is nice and staff is friendly. The hotel has a shuttle bus driver . Extremely friendly and fast. Never waited for him. Wifi is good, but not my favorite stay .There's nothing around there area. You can't even walk around the area  no sidewalks.  I don't think I would stay here again. Stay up the road in the Marriot. Trust me way better.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r408511218-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -801,22 +1182,10 @@
 Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think...My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.   Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think at what will happen to my clothes after being put in the hot dryer as they are normally lined dry.  My luggage is also outside wrapped in a plastic bag. FYI - washing clothes in very hot water and putting them in very hot dryer is only way to get rid of beg bugs.The supervisor did say these rooms will be taken out of commission, but just be aware and take the necessary precautions.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>EillenLabrador, General Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded November 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 2, 2016</t>
-  </si>
-  <si>
     <t>My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.  
 Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think...My family just stayed at this hotel for 3 days and 2 nights in 2 rooms (next to each other).  I picked this hotel because of it's proximity to Long Beach State and my previous experience at other Holiday Inns. On the first night, my sister saw a nymph cockroach crawling along the wall above the door. She managed to kill it with a paper towel. Unfortunately, she did not tell the front desk immediately and with everything going on over the weekend, we forgot to tell them the next day. On the 3rd morning, my sister found a nymph bed bug on her pillow (same room as the cockroach). Luckily, she and her husband were able to catch it.  This time, she saved it and we brought the dead bed bug to the front desk and also informed them of the cockroach from the previous night. As compensation, the front desk supervisor gave us 20% off and waived the parking fee as well as offered an apology.   Yes, the discount was a nice gesture, but it does not reflect the amount of time and effort we have to do to make sure these prolific insects do not infect our respective homes (3 separate homes in 3 separate cities).  As I am typing this review, I am washing my clothes in hot water and these clothes have NEVER been washed in anything but cold water. And I dread to think at what will happen to my clothes after being put in the hot dryer as they are normally lined dry.  My luggage is also outside wrapped in a plastic bag. FYI - washing clothes in very hot water and putting them in very hot dryer is only way to get rid of beg bugs.The supervisor did say these rooms will be taken out of commission, but just be aware and take the necessary precautions.More</t>
   </si>
   <si>
-    <t>Calmhawk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r400104495-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -841,9 +1210,6 @@
     <t>Very friendly and helpful staff - 5 stars thereRooms clean albeit small3 Stars for slamming doors, not insulated door which let it so much light that you always have twilight at night. The worst is the door to the adjacent room which is thin that one can hear the entire conversation next door. We had kids next door and they were goofing off (not party so we didn't call front desk) and we kept waking up...They also have paid parking that is not gated (we didn't use it)More</t>
   </si>
   <si>
-    <t>Tim V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r398997669-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -862,7 +1228,58 @@
     <t>Not close to the beach.  The rooms are old, but they are trying to make them feel younger.  Not a great area of town.  All in all, I would not stay here again.  And, i would pay more to stay farther way for better comfort. More</t>
   </si>
   <si>
-    <t>Gina C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r396000514-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>396000514</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>More noise then you may want</t>
+  </si>
+  <si>
+    <t>I stayed here over night before a flight out of Long Beach airport. The hotel is clean in the common areas. The room have decent space. If you have trouble with noise, be prepared to hear a lot. The walls are thin and you can hear everything in the next room. The noise from the street is constant. If that doesn't bother you, you'll be fine. You're right next to the 405 freeway. So you can get going quickly to any destination via the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here over night before a flight out of Long Beach airport. The hotel is clean in the common areas. The room have decent space. If you have trouble with noise, be prepared to hear a lot. The walls are thin and you can hear everything in the next room. The noise from the street is constant. If that doesn't bother you, you'll be fine. You're right next to the 405 freeway. So you can get going quickly to any destination via the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r386796996-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>386796996</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Keeping us safe!</t>
+  </si>
+  <si>
+    <t>The hotel was clean, and well kept. The thing that impressed me was how they were concerned for our well being during a black out in the area. We weren't sure if it was the room, the hotel or the whole area. The management team came on the intercom speaker and provided all the guests with information about the surrounding area and did a great job at keeping everyone notified and calm. Impressive.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean, and well kept. The thing that impressed me was how they were concerned for our well being during a black out in the area. We weren't sure if it was the room, the hotel or the whole area. The management team came on the intercom speaker and provided all the guests with information about the surrounding area and did a great job at keeping everyone notified and calm. Impressive.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r382818065-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -889,9 +1306,6 @@
     <t>The physical condition of the hotel was fine, location was okay, but the front desk staff was rude and they were less than honest.  I will not return and I could not give a recommendation for this place when there are so many other options.More</t>
   </si>
   <si>
-    <t>ArturoArecha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r379755516-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -919,9 +1333,6 @@
     <t>I book this hotel via Hotwire, howerver  i believe this should not be a reson to give lower quality rooms . The brand is Holiday  Inn and they should keep this level of quality , regardles of how you book it. The issue is thay have two buildings, the one tall one, that is shown in their web, and then a back one, which is a old style motel building.  Not only the rooms faces the street ( which makes them noizy)  but also they are not in the best shape. Old carpet, old style furniture,  So basicaily  not even a Holiday Inn Express categoryI can not neglect that the main building has a great apperance, and probably the rooms are quite nicer, but that is not what i got!!More</t>
   </si>
   <si>
-    <t>Chris C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r378313670-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -940,7 +1351,69 @@
     <t>This is an outrage. This hotel looks nice, pretends to be your friend, but will charge For breakfast the next morning. HOW RUDE. I've never been to a holiday inn where breakfasts wasn't complimentary. This place should be destroyed immediately. Lol I'm being abit dramatic but seriously for the price of these rooms they should offer it free. Hotel staff is friendly and courteous and hotel is clean and by 405 freeway easy to find. More</t>
   </si>
   <si>
-    <t>Jeniece E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r370766679-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>370766679</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Great stay in Long Beach!</t>
+  </si>
+  <si>
+    <t>Excellent stay! 
+This hotel has had a lot of improvements in the last couple of years. I stayed there for 3 nights the last week of April and I can say I would not hesitate booking this place again and again! 
+The lobby has been redone since my last stay. It is very welcoming and now has a coffee shop to the left that serves great coffee and some pastries. Very convenient, especially if you don’t have time to eat at the restaurant upstairs. 
+There is also a Subway across the street and a Spires restaurant, both open 24 hours. 
+Check in was a breeze. Front desk agent was informative and got us up to our room right away. They have apples at the front desk, which is a nice touch. 
+Elevators were fast and efficient. The room was very modern and updated! Comparable to a higher end hotel… it reminded me of a Westin. Everything was fresh, from the sheets to the carpet and the amenities. I was very pleased with the Keurig coffee maker in the room, and they give at least 4-6 different kinds of coffee and tea to choose from! So much easier than those other hotel coffee makers! 
+Bed was comfy, I slept like a baby. Pillows were awesome, not too hard and not too soft. 
+We got in late two nights in a row and the guy at the front desk who is the...Excellent stay! This hotel has had a lot of improvements in the last couple of years. I stayed there for 3 nights the last week of April and I can say I would not hesitate booking this place again and again! The lobby has been redone since my last stay. It is very welcoming and now has a coffee shop to the left that serves great coffee and some pastries. Very convenient, especially if you don’t have time to eat at the restaurant upstairs. There is also a Subway across the street and a Spires restaurant, both open 24 hours. Check in was a breeze. Front desk agent was informative and got us up to our room right away. They have apples at the front desk, which is a nice touch. Elevators were fast and efficient. The room was very modern and updated! Comparable to a higher end hotel… it reminded me of a Westin. Everything was fresh, from the sheets to the carpet and the amenities. I was very pleased with the Keurig coffee maker in the room, and they give at least 4-6 different kinds of coffee and tea to choose from! So much easier than those other hotel coffee makers! Bed was comfy, I slept like a baby. Pillows were awesome, not too hard and not too soft. We got in late two nights in a row and the guy at the front desk who is the night auditor always greeted us with a smile, no matter how late it was. Great customer service! Parking is about $10 which is not bad for a Long Beach hotel. Area is safe and close to restaurants and mall. They have a shuttle if you don’t have a car and the drivers are all nice and knowledgable about the area. Panorama Grill, the restaurant on the top floor has a great view of the city. It is also nice to watch planes from there going to and from the airport. Don’t worry, you can’t hear it! The server we had was very friendly and helpful. Prices are reasonable and food is excellent and presented nicely. I would go there just for the restaurant and the nice view. Overall, the Holiday Inn is an awesome place to stay whenever in Long Beach. It is not as expensive as the downtown hotels, it’s convenient to get in and out of (close to the 405) and the they are making more improvements. I can’t wait for the Staybridge Suites to open next door, which will be kind of an extension of the Holiday Inn. I will definitely stay there again and recommend it to anyone looking for a nice and reasonably priced hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Excellent stay! 
+This hotel has had a lot of improvements in the last couple of years. I stayed there for 3 nights the last week of April and I can say I would not hesitate booking this place again and again! 
+The lobby has been redone since my last stay. It is very welcoming and now has a coffee shop to the left that serves great coffee and some pastries. Very convenient, especially if you don’t have time to eat at the restaurant upstairs. 
+There is also a Subway across the street and a Spires restaurant, both open 24 hours. 
+Check in was a breeze. Front desk agent was informative and got us up to our room right away. They have apples at the front desk, which is a nice touch. 
+Elevators were fast and efficient. The room was very modern and updated! Comparable to a higher end hotel… it reminded me of a Westin. Everything was fresh, from the sheets to the carpet and the amenities. I was very pleased with the Keurig coffee maker in the room, and they give at least 4-6 different kinds of coffee and tea to choose from! So much easier than those other hotel coffee makers! 
+Bed was comfy, I slept like a baby. Pillows were awesome, not too hard and not too soft. 
+We got in late two nights in a row and the guy at the front desk who is the...Excellent stay! This hotel has had a lot of improvements in the last couple of years. I stayed there for 3 nights the last week of April and I can say I would not hesitate booking this place again and again! The lobby has been redone since my last stay. It is very welcoming and now has a coffee shop to the left that serves great coffee and some pastries. Very convenient, especially if you don’t have time to eat at the restaurant upstairs. There is also a Subway across the street and a Spires restaurant, both open 24 hours. Check in was a breeze. Front desk agent was informative and got us up to our room right away. They have apples at the front desk, which is a nice touch. Elevators were fast and efficient. The room was very modern and updated! Comparable to a higher end hotel… it reminded me of a Westin. Everything was fresh, from the sheets to the carpet and the amenities. I was very pleased with the Keurig coffee maker in the room, and they give at least 4-6 different kinds of coffee and tea to choose from! So much easier than those other hotel coffee makers! Bed was comfy, I slept like a baby. Pillows were awesome, not too hard and not too soft. We got in late two nights in a row and the guy at the front desk who is the night auditor always greeted us with a smile, no matter how late it was. Great customer service! Parking is about $10 which is not bad for a Long Beach hotel. Area is safe and close to restaurants and mall. They have a shuttle if you don’t have a car and the drivers are all nice and knowledgable about the area. Panorama Grill, the restaurant on the top floor has a great view of the city. It is also nice to watch planes from there going to and from the airport. Don’t worry, you can’t hear it! The server we had was very friendly and helpful. Prices are reasonable and food is excellent and presented nicely. I would go there just for the restaurant and the nice view. Overall, the Holiday Inn is an awesome place to stay whenever in Long Beach. It is not as expensive as the downtown hotels, it’s convenient to get in and out of (close to the 405) and the they are making more improvements. I can’t wait for the Staybridge Suites to open next door, which will be kind of an extension of the Holiday Inn. I will definitely stay there again and recommend it to anyone looking for a nice and reasonably priced hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r368315716-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>368315716</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>I filmed across the street from the Holiday Inn Long Beach. I was so pleasantly surprised with the accommodations. The room was clean and spacious. The bathroom was well appointed. And the bed very comfortable.  I would recommend this hotel and I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>I filmed across the street from the Holiday Inn Long Beach. I was so pleasantly surprised with the accommodations. The room was clean and spacious. The bathroom was well appointed. And the bed very comfortable.  I would recommend this hotel and I would stay there again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r367053980-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -958,9 +1431,6 @@
     <t>Really nice room and beds, service was okay... My main issue is we were charged a $20 occupancy fee and $9 for parking so tack on another $30 to their nightly room rate and you've got an overpriced hotel. If it wasn't for that, I'd highly recommend this hotel. I prefer hotels that are up front with how much it really costs per night, not baits you in with a low accommodation cost and then charge all kinds of fees... Not cool. MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 27, 2016</t>
   </si>
   <si>
@@ -970,9 +1440,6 @@
     <t>Really nice room and beds, service was okay... My main issue is we were charged a $20 occupancy fee and $9 for parking so tack on another $30 to their nightly room rate and you've got an overpriced hotel. If it wasn't for that, I'd highly recommend this hotel. I prefer hotels that are up front with how much it really costs per night, not baits you in with a low accommodation cost and then charge all kinds of fees... Not cool. More</t>
   </si>
   <si>
-    <t>CFFC9973</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r365870135-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -991,16 +1458,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded May 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 9, 2016</t>
-  </si>
-  <si>
     <t>Visited the property in March 2016. My experience is based on my own observations and my own personal interaction with hotel staff. The property is trying to improve. If one reads the 2012 reviews a person would be crazy to stay here. But, since then it appears the hotel has slowly improved. All the review comments about noise are true. It is next to one of the busiest freeways in the world and there is an airport nearby as well. However, it is well placed for anyone needing a place to stay in southern LA county. The remodel seems to have helped reviews move into the three to five star range. It needed the remodel in many ways.My terrible experience occurred while personally  interacting with hotel management. I found management to be unreasonable and greed motivated. It would have been simple to resolve my concerns and issues in an equitable manner, but instead management chose to try to take advantage of my situation. Rather than you thinking this review is just an editorial, my review is based on my personal experience with staff, management and representatives of this hotel and I base my review of my experience with this hotel on my comparable experiences with many other hotel brands where my experiences were more positive under similar circumstances.More</t>
-  </si>
-  <si>
-    <t>EyeTravel4Fun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r363971974-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
@@ -1031,6 +1489,54 @@
 First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  
 We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.
 As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers,...I stayed at the Holiday Inn in early March for several days.  We used points from a time share converted to stay at the hotel.  We stayed here for nostalgic purposes, as we had stayed here many times as children visiting family in the area.  First, NEVER use time share points here.  We tried twice to secure a remodeled room before entering a room and were told we couldn't have one "at the price we paid."  Well, we could have a 3 bedroom condo for less than what we paid, so I think that since we went through a third party, they assumed we used a discount site.  It is a mistake we will not make again.  We checked into our non-remodeled room on the 7th floor.  The bathroom was old, but the room itself was clean and seemed nice.  The bathroom was divided so someone could get ready at the mirror while another showered behind closed doors, which was appreciated with two adults and two teenage girls.  That night, my niece enjoyed a nice, hot shower.  The next day, the water was luke warm at best, and after one shower, it was cold.  It remained cold.  We called and they sent someone up, who "fixed" it.  It was hot in the sink, but cold in the shower.As we left for lunch, we complained at the front desk.  The lady from the night before initially offered us breakfast vouchers, stating she couldn't do anything about the price of our room since we "paid so little" (this is the second time we heard this...I think she has something against discount customers, AND is mistaken when she categorizes them...do NOT book the way we did...).  We told her we were there for a week and really just wanted hot water.  She became more friendly then and said she would have someone work on it while we were gone.When we returned, another lady moved us to a renovated room on the fifth floor.  She went up to the room personally to ensure the hot water in that room was working prior to moving rooms.  She was very helpful.  The renovated room was not really much different than the room we had on the 7th floor.  The bathroom remodel was AMAZING, but...the sink was now in the main bathroom, which wasn't as convenient for us, but we made it work.  There was also less room due to a large rolling table as part of a desk, but it was comfortable and clean.  Overall, our stay was pleasant.  I left my makeup brushes back in the vanity at the hotel and they never could find them, but they have a lot of people coming and going, so I cut my losses and bought new.We parked underneath a light every night and felt perfectly comfortable walking to the main building.  The lobby looks as if it will be nice once finished.  One elevator was renovated and one wasn't, and you could tell a HUGE difference there.  They turned the hot water off a few times during our stay, but other than the first time (when ours never returned), they always posted notices ahead of time.Our biggest issue was being treated as a second rate guest for trading in points.  Lesson learned on using points outside of the timeshare.  They cooperate with another well known chain, and in the future I will know Holiday Inn doesn't appreciate customers who don't book rack rate and will look into other options.The nostalgia we went looking for was lacking.  The tiny balconies (that you couldn't really fit on) have been replaced with windows (safety, I am sure).  The breakfast on the top floor was ridiculously priced, so we went elsewhere (I suggest Hof's Hut).  It was a good location for our visit though, and overall a pleasant experience.They are renovating, so make sure you go in knowing there may be glitches.  The smaller two story building outside looked sketchy.  My sister overheard the same woman tell someone on the phone that they reserve the tower rooms for people who have stayed with them before, so maybe keep that in mind.  Eventually, they will bulldoze that building (the two story building with outside entrances) and turn it into suites, from what we were told, but I am glad we were in the tower.We did not visit the outdoor pool, the workout facility, or the penthouse restaurant.  They were working on the quick eat location in the lobby, so it was not available.  We did use the "business center" - which was a printer and computer behind a counter, but they were very accommodating in letting us print our boarding passes. The reviews on this lately are very mixed.  Book at your own risk until renovations are complete.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r363309752-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>363309752</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Pretty good. Awesome views...</t>
+  </si>
+  <si>
+    <t>This place is pretty nice. The Dbl Qn room was standard. Beds comfy. Clean smell. I'm not impressed with the lack if available local tv channels. Many are 'fuzzy/snowy' as if being picked up over the air or something. Bathroom was really nice and clean. Ate at the restaurant on the Penthouse floor and the views were amazing. Even for a cloudy day, it was breathtaking. The name of the restaurant is perfect... "Panorama"MoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>This place is pretty nice. The Dbl Qn room was standard. Beds comfy. Clean smell. I'm not impressed with the lack if available local tv channels. Many are 'fuzzy/snowy' as if being picked up over the air or something. Bathroom was really nice and clean. Ate at the restaurant on the Penthouse floor and the views were amazing. Even for a cloudy day, it was breathtaking. The name of the restaurant is perfect... "Panorama"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77600-r361840813-Holiday_Inn_Long_Beach_Airport_Hotel_and_Conference_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>361840813</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I had an issue with our room.  I notified management with my concerns and the manager went above and beyond to make things right.  Excellent customer service!  Excellent and friendly manager!  Thank you again, Karin MMoreShow less</t>
+  </si>
+  <si>
+    <t>EillenLabrador, Manager at Holiday Inn Long Beach Airport Hotel and Conference Center, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>I had an issue with our room.  I notified management with my concerns and the manager went above and beyond to make things right.  Excellent customer service!  Excellent and friendly manager!  Thank you again, Karin MMore</t>
   </si>
 </sst>
 </file>
@@ -1535,254 +2041,238 @@
       <c r="A2" t="n">
         <v>167</v>
       </c>
-      <c r="B2" t="n">
-        <v>36551</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>167</v>
       </c>
-      <c r="B3" t="n">
-        <v>9150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>167</v>
       </c>
-      <c r="B4" t="n">
-        <v>3638</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" t="s">
-        <v>78</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>167</v>
       </c>
-      <c r="B5" t="n">
-        <v>899</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1794,61 +2284,53 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>167</v>
       </c>
-      <c r="B6" t="n">
-        <v>192902</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1859,343 +2341,321 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>167</v>
       </c>
-      <c r="B7" t="n">
-        <v>192903</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>167</v>
       </c>
-      <c r="B8" t="n">
-        <v>192904</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>167</v>
       </c>
-      <c r="B9" t="n">
-        <v>192905</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>167</v>
       </c>
-      <c r="B10" t="n">
-        <v>192906</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>167</v>
       </c>
-      <c r="B11" t="n">
-        <v>192907</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>144</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2204,60 +2664,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>167</v>
       </c>
-      <c r="B12" t="n">
-        <v>321</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2269,51 +2725,47 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>167</v>
       </c>
-      <c r="B13" t="n">
-        <v>192908</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -2322,7 +2774,7 @@
         <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2334,133 +2786,129 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>167</v>
       </c>
-      <c r="B14" t="n">
-        <v>192909</v>
-      </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>174</v>
-      </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>167</v>
       </c>
-      <c r="B15" t="n">
-        <v>17423</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2469,473 +2917,431 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>185</v>
-      </c>
-      <c r="X15" t="s">
-        <v>186</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>167</v>
       </c>
-      <c r="B16" t="n">
-        <v>70647</v>
-      </c>
-      <c r="C16" t="s">
-        <v>188</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>195</v>
-      </c>
-      <c r="X16" t="s">
-        <v>196</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>167</v>
       </c>
-      <c r="B17" t="n">
-        <v>28478</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>167</v>
       </c>
-      <c r="B18" t="n">
-        <v>192904</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="X18" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="Y18" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>167</v>
       </c>
-      <c r="B19" t="n">
-        <v>192910</v>
-      </c>
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>167</v>
       </c>
-      <c r="B20" t="n">
-        <v>192911</v>
-      </c>
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>167</v>
       </c>
-      <c r="B21" t="n">
-        <v>192912</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>167</v>
       </c>
-      <c r="B22" t="n">
-        <v>192913</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2947,195 +3353,183 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>167</v>
       </c>
-      <c r="B23" t="n">
-        <v>192914</v>
-      </c>
-      <c r="C23" t="s">
-        <v>254</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>167</v>
       </c>
-      <c r="B24" t="n">
-        <v>192915</v>
-      </c>
-      <c r="C24" t="s">
-        <v>264</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>167</v>
       </c>
-      <c r="B25" t="n">
-        <v>24594</v>
-      </c>
-      <c r="C25" t="s">
-        <v>273</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>239</v>
+      </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -3146,57 +3540,57 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>167</v>
       </c>
-      <c r="B26" t="n">
-        <v>24084</v>
-      </c>
-      <c r="C26" t="s">
-        <v>280</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3207,131 +3601,121 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>167</v>
       </c>
-      <c r="B27" t="n">
-        <v>192916</v>
-      </c>
-      <c r="C27" t="s">
-        <v>289</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
+      <c r="Q27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>167</v>
       </c>
-      <c r="B28" t="n">
-        <v>621</v>
-      </c>
-      <c r="C28" t="s">
-        <v>299</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3343,214 +3727,1852 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>167</v>
       </c>
-      <c r="B29" t="n">
-        <v>192917</v>
-      </c>
-      <c r="C29" t="s">
-        <v>306</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>167</v>
       </c>
-      <c r="B30" t="n">
-        <v>192918</v>
-      </c>
-      <c r="C30" t="s">
-        <v>316</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>167</v>
       </c>
-      <c r="B31" t="n">
-        <v>192919</v>
-      </c>
-      <c r="C31" t="s">
-        <v>326</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
         <v>76</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>317</v>
+      </c>
+      <c r="X35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
         <v>332</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X36" t="s">
         <v>333</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y36" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>341</v>
+      </c>
+      <c r="X37" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>349</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>341</v>
+      </c>
+      <c r="X38" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>356</v>
+      </c>
+      <c r="X39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>364</v>
+      </c>
+      <c r="X40" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>372</v>
+      </c>
+      <c r="X42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>380</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>167</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>404</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" t="s">
+        <v>406</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>408</v>
+      </c>
+      <c r="X46" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>411</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s">
+        <v>414</v>
+      </c>
+      <c r="L47" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" t="s">
+        <v>422</v>
+      </c>
+      <c r="K48" t="s">
+        <v>423</v>
+      </c>
+      <c r="L48" t="s">
+        <v>424</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>429</v>
+      </c>
+      <c r="J49" t="s">
+        <v>430</v>
+      </c>
+      <c r="K49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>433</v>
+      </c>
+      <c r="O49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" t="s">
+        <v>440</v>
+      </c>
+      <c r="L50" t="s">
+        <v>441</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>433</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>434</v>
+      </c>
+      <c r="X50" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s">
+        <v>239</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>453</v>
+      </c>
+      <c r="J52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" t="s">
+        <v>455</v>
+      </c>
+      <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>457</v>
+      </c>
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>461</v>
+      </c>
+      <c r="J53" t="s">
+        <v>462</v>
+      </c>
+      <c r="K53" t="s">
+        <v>463</v>
+      </c>
+      <c r="L53" t="s">
+        <v>464</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>465</v>
+      </c>
+      <c r="X53" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>468</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+      <c r="J54" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54" t="s">
+        <v>472</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>473</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>449</v>
+      </c>
+      <c r="X54" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>476</v>
+      </c>
+      <c r="J55" t="s">
+        <v>477</v>
+      </c>
+      <c r="K55" t="s">
+        <v>478</v>
+      </c>
+      <c r="L55" t="s">
+        <v>479</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>473</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>480</v>
+      </c>
+      <c r="X55" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>484</v>
+      </c>
+      <c r="J56" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>487</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>473</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>496</v>
+      </c>
+      <c r="X57" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
